--- a/public/templates/Abnahme FRAGEN.xlsx
+++ b/public/templates/Abnahme FRAGEN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\APROD\Aprod\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607BCE18-16BA-4A67-BE5D-41DC1EA32E48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506D5B1C-F07D-4ED5-92EF-0B18CFF20FFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="41280" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="416">
   <si>
     <t>ID</t>
   </si>
@@ -1239,6 +1239,45 @@
   </si>
   <si>
     <t>Antwort</t>
+  </si>
+  <si>
+    <t>basic_info</t>
+  </si>
+  <si>
+    <t>technical_specs</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>measurements</t>
+  </si>
+  <si>
+    <t>protocol_verification</t>
+  </si>
+  <si>
+    <t>maintenance</t>
+  </si>
+  <si>
+    <t>special_tests</t>
+  </si>
+  <si>
+    <t>environmental</t>
+  </si>
+  <si>
+    <t>conditional_group_key</t>
+  </si>
+  <si>
+    <t>Szűrt kérdés</t>
+  </si>
+  <si>
+    <t>Ad meg magad</t>
+  </si>
+  <si>
+    <t>Inverter typ</t>
+  </si>
+  <si>
+    <t>Inverter típus</t>
   </si>
 </sst>
 </file>
@@ -1691,10 +1730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C829CC3F-6FE0-4C51-9144-6919D0578DEB}">
-  <dimension ref="A1:X48"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1717,6 +1756,8 @@
     <col min="16" max="16" width="40.88671875" customWidth="1"/>
     <col min="17" max="17" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="96.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="42" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="33.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -1774,7 +1815,9 @@
       <c r="R1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="S1" s="1"/>
+      <c r="S1" s="13" t="s">
+        <v>411</v>
+      </c>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
@@ -1821,7 +1864,9 @@
         <v>8</v>
       </c>
       <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="T2" s="1" t="s">
+        <v>403</v>
+      </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -2021,7 +2066,9 @@
         <v>16</v>
       </c>
       <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+      <c r="T6" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -2071,7 +2118,9 @@
         <v>18</v>
       </c>
       <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
+      <c r="T7" s="1" t="s">
+        <v>404</v>
+      </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -2221,7 +2270,9 @@
         <v>31</v>
       </c>
       <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+      <c r="T10" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -2352,7 +2403,9 @@
       <c r="N13" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O13" s="1"/>
+      <c r="O13" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -2396,9 +2449,13 @@
       <c r="N14" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O14" s="1"/>
+      <c r="O14" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="Q14" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2447,13 +2504,15 @@
         <v>75</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
+      <c r="T15" s="1" t="s">
+        <v>406</v>
+      </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -2554,7 +2613,9 @@
       <c r="R17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S17" s="1"/>
+      <c r="S17" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
@@ -2655,7 +2716,9 @@
         <v>64</v>
       </c>
       <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
+      <c r="T19" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
@@ -2805,7 +2868,9 @@
         <v>67</v>
       </c>
       <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
+      <c r="T22" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
@@ -2855,7 +2920,9 @@
         <v>68</v>
       </c>
       <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
+      <c r="T23" s="1" t="s">
+        <v>409</v>
+      </c>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
@@ -2905,7 +2972,9 @@
         <v>69</v>
       </c>
       <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
+      <c r="T24" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
@@ -3012,30 +3081,26 @@
       <c r="X26" s="1"/>
     </row>
     <row r="27" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A27" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>107</v>
+        <v>412</v>
       </c>
       <c r="L27" s="1">
         <v>1</v>
@@ -3043,13 +3108,17 @@
       <c r="M27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="N27" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="Q27" s="1"/>
-      <c r="R27" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
@@ -3059,19 +3128,19 @@
     </row>
     <row r="28" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>97</v>
@@ -3084,7 +3153,7 @@
         <v>107</v>
       </c>
       <c r="L28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>25</v>
@@ -3094,7 +3163,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -3105,19 +3174,19 @@
     </row>
     <row r="29" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>97</v>
@@ -3130,7 +3199,7 @@
         <v>107</v>
       </c>
       <c r="L29" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>25</v>
@@ -3140,7 +3209,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -3151,38 +3220,32 @@
     </row>
     <row r="30" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="F30" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I30" s="2">
-        <v>700</v>
-      </c>
-      <c r="J30" s="2">
-        <v>9000</v>
-      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
       <c r="K30" s="1" t="s">
         <v>107</v>
       </c>
       <c r="L30" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>25</v>
@@ -3192,7 +3255,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -3203,13 +3266,13 @@
     </row>
     <row r="31" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>90</v>
@@ -3219,13 +3282,13 @@
         <v>97</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I31" s="2">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="J31" s="2">
         <v>9000</v>
@@ -3234,7 +3297,7 @@
         <v>107</v>
       </c>
       <c r="L31" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>25</v>
@@ -3244,7 +3307,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -3254,24 +3317,50 @@
       <c r="X31" s="1"/>
     </row>
     <row r="32" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="A32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" s="2">
+        <v>400</v>
+      </c>
+      <c r="J32" s="2">
+        <v>9000</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L32" s="1">
+        <v>5</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
+      <c r="R32" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
@@ -3326,6 +3415,10 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
     </row>
     <row r="35" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
@@ -3634,6 +3727,28 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
+    </row>
+    <row r="49" spans="1:20" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/templates/Abnahme FRAGEN.xlsx
+++ b/public/templates/Abnahme FRAGEN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\APROD\Aprod\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506D5B1C-F07D-4ED5-92EF-0B18CFF20FFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14088DF1-56B0-46BF-BC26-9B2DE26FC529}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="41280" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1732,8 +1732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C829CC3F-6FE0-4C51-9144-6919D0578DEB}">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/public/templates/Abnahme FRAGEN.xlsx
+++ b/public/templates/Abnahme FRAGEN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\APROD\Aprod\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14088DF1-56B0-46BF-BC26-9B2DE26FC529}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD404F5-36E1-4B30-94C0-3842BEC03543}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="41280" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="418">
   <si>
     <t>ID</t>
   </si>
@@ -497,12 +497,6 @@
     <t>Válassz</t>
   </si>
   <si>
-    <t>mittom</t>
-  </si>
-  <si>
-    <t>mittomén</t>
-  </si>
-  <si>
     <t>radio</t>
   </si>
   <si>
@@ -1278,6 +1272,18 @@
   </si>
   <si>
     <t>Inverter típus</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>banán,macska, sajt</t>
+  </si>
+  <si>
+    <t>Válasszá more</t>
+  </si>
+  <si>
+    <t>Sok szöveg</t>
   </si>
 </sst>
 </file>
@@ -1730,10 +1736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C829CC3F-6FE0-4C51-9144-6919D0578DEB}">
-  <dimension ref="A1:X49"/>
+  <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1743,24 +1749,25 @@
     <col min="3" max="3" width="98.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
     <col min="5" max="5" width="69.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32" customWidth="1"/>
-    <col min="15" max="15" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="40.88671875" customWidth="1"/>
-    <col min="17" max="17" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="96.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="42" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32" customWidth="1"/>
+    <col min="16" max="16" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="40.88671875" customWidth="1"/>
+    <col min="18" max="18" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="96.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="42" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:25" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1777,50 +1784,53 @@
         <v>113</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="S1" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="T1" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1841,38 +1851,39 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>1</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="U2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1" t="s">
+        <v>401</v>
+      </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-    </row>
-    <row r="3" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y2" s="1"/>
+    </row>
+    <row r="3" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1893,36 +1904,37 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>2</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-    </row>
-    <row r="4" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y3" s="1"/>
+    </row>
+    <row r="4" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1943,36 +1955,37 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>3</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-    </row>
-    <row r="5" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1993,36 +2006,37 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>4</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="1"/>
+      <c r="S5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-    </row>
-    <row r="6" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2043,38 +2057,39 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>5</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1" t="s">
+      <c r="R6" s="1"/>
+      <c r="S6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="U6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-    </row>
-    <row r="7" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y6" s="1"/>
+    </row>
+    <row r="7" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2095,38 +2110,39 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>6</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="1"/>
+      <c r="S7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="U7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-    </row>
-    <row r="8" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y7" s="1"/>
+    </row>
+    <row r="8" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2147,36 +2163,37 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>7</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1" t="s">
+      <c r="R8" s="1"/>
+      <c r="S8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-    </row>
-    <row r="9" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2197,36 +2214,37 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>8</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1" t="s">
+      <c r="R9" s="1"/>
+      <c r="S9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-    </row>
-    <row r="10" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2247,38 +2265,39 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>9</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1" t="s">
+      <c r="R10" s="1"/>
+      <c r="S10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="U10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1" t="s">
+        <v>403</v>
+      </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-    </row>
-    <row r="11" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2299,22 +2318,22 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>10</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="O11" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -2323,8 +2342,9 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-    </row>
-    <row r="12" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2332,7 +2352,7 @@
         <v>154</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>150</v>
@@ -2340,27 +2360,29 @@
       <c r="E12" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>415</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>11</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="O12" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -2369,44 +2391,45 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-    </row>
-    <row r="13" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>12</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="O13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -2415,56 +2438,58 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-    </row>
-    <row r="14" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y13" s="1"/>
+    </row>
+    <row r="14" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>13</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="O14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1" t="s">
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-    </row>
-    <row r="15" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y14" s="1"/>
+    </row>
+    <row r="15" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2485,40 +2510,41 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>1</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R15" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="U15" s="1"/>
+      <c r="S15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1" t="s">
+        <v>404</v>
+      </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-    </row>
-    <row r="16" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y15" s="1"/>
+    </row>
+    <row r="16" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2539,38 +2565,39 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>2</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-    </row>
-    <row r="17" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y16" s="1"/>
+    </row>
+    <row r="17" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2591,38 +2618,39 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>1</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="O17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="Q17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1" t="s">
+      <c r="R17" s="1"/>
+      <c r="S17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="T17" s="1"/>
+      <c r="T17" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-    </row>
-    <row r="18" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y17" s="1"/>
+    </row>
+    <row r="18" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2643,36 +2671,37 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>2</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1" t="s">
+      <c r="R18" s="1"/>
+      <c r="S18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
-    </row>
-    <row r="19" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y18" s="1"/>
+    </row>
+    <row r="19" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2693,38 +2722,39 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="1"/>
+      <c r="L19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>3</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1" t="s">
+      <c r="R19" s="1"/>
+      <c r="S19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="U19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
-    </row>
-    <row r="20" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y19" s="1"/>
+    </row>
+    <row r="20" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2745,36 +2775,37 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="1"/>
+      <c r="L20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>4</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1" t="s">
+      <c r="R20" s="1"/>
+      <c r="S20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-    </row>
-    <row r="21" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y20" s="1"/>
+    </row>
+    <row r="21" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2795,36 +2826,37 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>5</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1" t="s">
+      <c r="R21" s="1"/>
+      <c r="S21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-    </row>
-    <row r="22" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y21" s="1"/>
+    </row>
+    <row r="22" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2845,38 +2877,39 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <v>6</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1" t="s">
+      <c r="R22" s="1"/>
+      <c r="S22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="U22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1" t="s">
+        <v>406</v>
+      </c>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-    </row>
-    <row r="23" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y22" s="1"/>
+    </row>
+    <row r="23" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2897,38 +2930,39 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="1">
         <v>7</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="Q23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1" t="s">
+      <c r="R23" s="1"/>
+      <c r="S23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="U23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-    </row>
-    <row r="24" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y23" s="1"/>
+    </row>
+    <row r="24" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2949,38 +2983,39 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <v>8</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="Q24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1" t="s">
+      <c r="R24" s="1"/>
+      <c r="S24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="U24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-    </row>
-    <row r="25" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y24" s="1"/>
+    </row>
+    <row r="25" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3001,36 +3036,37 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L25" s="1">
+      <c r="M25" s="1">
         <v>9</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="O25" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="P25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="Q25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1" t="s">
+      <c r="R25" s="1"/>
+      <c r="S25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
-    </row>
-    <row r="26" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y25" s="1"/>
+    </row>
+    <row r="26" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3051,44 +3087,45 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="1">
         <v>10</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="O26" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="Q26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1" t="s">
+      <c r="R26" s="1"/>
+      <c r="S26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
-    </row>
-    <row r="27" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y26" s="1"/>
+    </row>
+    <row r="27" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>4</v>
@@ -3099,25 +3136,25 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="L27" s="1">
+      <c r="K27" s="1"/>
+      <c r="L27" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="M27" s="1">
         <v>1</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>413</v>
-      </c>
       <c r="O27" s="1" t="s">
-        <v>179</v>
+        <v>411</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q27" s="1"/>
+        <v>177</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -3125,8 +3162,9 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
-    </row>
-    <row r="28" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y27" s="1"/>
+    </row>
+    <row r="28" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
         <v>77</v>
       </c>
@@ -3142,37 +3180,38 @@
       <c r="E28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="3"/>
+      <c r="L28" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L28" s="1">
+      <c r="M28" s="1">
         <v>1</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="2" t="s">
+      <c r="R28" s="1"/>
+      <c r="S28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
-    </row>
-    <row r="29" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y28" s="1"/>
+    </row>
+    <row r="29" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
         <v>81</v>
       </c>
@@ -3188,37 +3227,38 @@
       <c r="E29" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="3"/>
+      <c r="L29" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L29" s="1">
+      <c r="M29" s="1">
         <v>2</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="2" t="s">
+      <c r="R29" s="1"/>
+      <c r="S29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
-    </row>
-    <row r="30" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y29" s="1"/>
+    </row>
+    <row r="30" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
         <v>84</v>
       </c>
@@ -3234,37 +3274,38 @@
       <c r="E30" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="1" t="s">
+      <c r="K30" s="3"/>
+      <c r="L30" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L30" s="1">
+      <c r="M30" s="1">
         <v>3</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="2" t="s">
+      <c r="R30" s="1"/>
+      <c r="S30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
-    </row>
-    <row r="31" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y30" s="1"/>
+    </row>
+    <row r="31" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>87</v>
       </c>
@@ -3278,45 +3319,46 @@
         <v>90</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I31" s="2">
+      <c r="J31" s="2">
         <v>700</v>
       </c>
-      <c r="J31" s="2">
+      <c r="K31" s="2">
         <v>9000</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L31" s="1">
+      <c r="M31" s="1">
         <v>4</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="2" t="s">
+      <c r="R31" s="1"/>
+      <c r="S31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
-    </row>
-    <row r="32" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y31" s="1"/>
+    </row>
+    <row r="32" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>91</v>
       </c>
@@ -3330,45 +3372,46 @@
         <v>90</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I32" s="2">
+      <c r="J32" s="2">
         <v>400</v>
       </c>
-      <c r="J32" s="2">
+      <c r="K32" s="2">
         <v>9000</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L32" s="1">
+      <c r="M32" s="1">
         <v>5</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="2" t="s">
+      <c r="R32" s="1"/>
+      <c r="S32" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
-    </row>
-    <row r="33" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y32" s="1"/>
+    </row>
+    <row r="33" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3393,8 +3436,9 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
-    </row>
-    <row r="34" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y33" s="1"/>
+    </row>
+    <row r="34" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3419,8 +3463,9 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
-    </row>
-    <row r="35" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Y34" s="1"/>
+    </row>
+    <row r="35" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3441,8 +3486,9 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
-    </row>
-    <row r="36" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="U35" s="1"/>
+    </row>
+    <row r="36" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3463,8 +3509,9 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
-    </row>
-    <row r="37" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="U36" s="1"/>
+    </row>
+    <row r="37" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3485,8 +3532,9 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
-    </row>
-    <row r="38" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="U37" s="1"/>
+    </row>
+    <row r="38" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3507,8 +3555,9 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
-    </row>
-    <row r="39" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="U38" s="1"/>
+    </row>
+    <row r="39" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3529,8 +3578,9 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
-    </row>
-    <row r="40" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="U39" s="1"/>
+    </row>
+    <row r="40" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3551,8 +3601,9 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
-    </row>
-    <row r="41" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="U40" s="1"/>
+    </row>
+    <row r="41" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3573,8 +3624,9 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
-    </row>
-    <row r="42" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="U41" s="1"/>
+    </row>
+    <row r="42" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3595,8 +3647,9 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
-    </row>
-    <row r="43" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="U42" s="1"/>
+    </row>
+    <row r="43" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3617,8 +3670,9 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
-    </row>
-    <row r="44" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="U43" s="1"/>
+    </row>
+    <row r="44" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3639,8 +3693,9 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
-    </row>
-    <row r="45" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="U44" s="1"/>
+    </row>
+    <row r="45" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3661,8 +3716,9 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
-    </row>
-    <row r="46" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="U45" s="1"/>
+    </row>
+    <row r="46" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3683,8 +3739,9 @@
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
-    </row>
-    <row r="47" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="U46" s="1"/>
+    </row>
+    <row r="47" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3705,8 +3762,9 @@
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
-    </row>
-    <row r="48" spans="1:24" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="U47" s="1"/>
+    </row>
+    <row r="48" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3727,8 +3785,9 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
-    </row>
-    <row r="49" spans="1:20" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="U48" s="1"/>
+    </row>
+    <row r="49" spans="1:21" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3749,6 +3808,7 @@
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3782,10 +3842,10 @@
         <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -3809,13 +3869,13 @@
     </row>
     <row r="2" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12" t="s">
@@ -3840,13 +3900,13 @@
     </row>
     <row r="3" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
@@ -3869,13 +3929,13 @@
     </row>
     <row r="4" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
@@ -3898,13 +3958,13 @@
     </row>
     <row r="5" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
@@ -3927,22 +3987,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -3960,22 +4020,22 @@
     </row>
     <row r="7" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3993,22 +4053,22 @@
     </row>
     <row r="8" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -4026,22 +4086,22 @@
     </row>
     <row r="9" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -5355,25 +5415,25 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>188</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>190</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -5391,22 +5451,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="F2" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>244</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>246</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -5424,22 +5484,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>245</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>247</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -5457,22 +5517,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -5490,22 +5550,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -5523,22 +5583,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -5556,22 +5616,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>206</v>
-      </c>
       <c r="G7" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -5589,22 +5649,22 @@
         <v>2</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -5622,22 +5682,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -5655,22 +5715,22 @@
         <v>4</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -5688,22 +5748,22 @@
         <v>5</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -5721,22 +5781,22 @@
         <v>6</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -5754,22 +5814,22 @@
         <v>7</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -5787,22 +5847,22 @@
         <v>8</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -5820,22 +5880,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -5853,22 +5913,22 @@
         <v>10</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -5886,22 +5946,22 @@
         <v>11</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -5919,22 +5979,22 @@
         <v>12</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -5952,16 +6012,16 @@
         <v>13</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -5981,22 +6041,22 @@
         <v>14</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -6014,22 +6074,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -6047,22 +6107,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -6080,22 +6140,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -6113,22 +6173,22 @@
         <v>4</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -6146,22 +6206,22 @@
         <v>5</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -6179,22 +6239,22 @@
         <v>6</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -6212,22 +6272,22 @@
         <v>7</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -6245,22 +6305,22 @@
         <v>8</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -6278,22 +6338,22 @@
         <v>9</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -6311,22 +6371,22 @@
         <v>10</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -6344,22 +6404,22 @@
         <v>11</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -6377,22 +6437,22 @@
         <v>12</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -6410,22 +6470,22 @@
         <v>13</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -6443,22 +6503,22 @@
         <v>14</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -6476,16 +6536,16 @@
         <v>15</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
@@ -6505,16 +6565,16 @@
         <v>16</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F36" s="12"/>
       <c r="H36" s="1"/>
@@ -6526,22 +6586,22 @@
         <v>17</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -6552,22 +6612,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -6578,22 +6638,22 @@
         <v>2</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>71</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -6604,22 +6664,22 @@
         <v>3</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -6630,22 +6690,22 @@
         <v>4</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -6656,22 +6716,22 @@
         <v>5</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -6682,22 +6742,22 @@
         <v>6</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -6708,22 +6768,22 @@
         <v>7</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -6734,22 +6794,22 @@
         <v>8</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -6760,22 +6820,22 @@
         <v>9</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -6786,16 +6846,16 @@
         <v>10</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -6808,16 +6868,16 @@
         <v>11</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
@@ -6830,22 +6890,22 @@
         <v>12</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -6856,22 +6916,22 @@
         <v>1</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -6882,22 +6942,22 @@
         <v>2</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -6908,22 +6968,22 @@
         <v>3</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -6934,22 +6994,22 @@
         <v>4</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -6960,22 +7020,22 @@
         <v>5</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -6986,22 +7046,22 @@
         <v>6</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -7012,22 +7072,22 @@
         <v>7</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -7038,16 +7098,16 @@
         <v>8</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
@@ -7060,16 +7120,16 @@
         <v>9</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
@@ -7082,22 +7142,22 @@
         <v>10</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -7108,22 +7168,22 @@
         <v>1</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -7134,22 +7194,22 @@
         <v>2</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -7160,22 +7220,22 @@
         <v>3</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -7186,22 +7246,22 @@
         <v>4</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -7212,22 +7272,22 @@
         <v>5</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -7238,22 +7298,22 @@
         <v>6</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -7264,16 +7324,16 @@
         <v>7</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
@@ -7286,16 +7346,16 @@
         <v>8</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
@@ -7308,22 +7368,22 @@
         <v>9</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -7367,22 +7427,22 @@
   <sheetData>
     <row r="1" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="13" t="s">
         <v>371</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>373</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -7402,7 +7462,7 @@
         <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>124</v>
@@ -7414,7 +7474,7 @@
         <v>125</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -7434,7 +7494,7 @@
         <v>126</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>127</v>
@@ -7446,7 +7506,7 @@
         <v>125</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -7466,7 +7526,7 @@
         <v>128</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -7476,7 +7536,7 @@
         <v>125</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -7496,7 +7556,7 @@
         <v>129</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -7506,7 +7566,7 @@
         <v>125</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -7526,7 +7586,7 @@
         <v>130</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
@@ -7536,7 +7596,7 @@
         <v>125</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -7556,7 +7616,7 @@
         <v>131</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
@@ -7566,7 +7626,7 @@
         <v>125</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -7586,7 +7646,7 @@
         <v>132</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
@@ -7596,7 +7656,7 @@
         <v>125</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -7616,7 +7676,7 @@
         <v>133</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -7626,7 +7686,7 @@
         <v>125</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -7646,7 +7706,7 @@
         <v>134</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
@@ -7656,7 +7716,7 @@
         <v>125</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -7686,7 +7746,7 @@
         <v>125</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -7706,7 +7766,7 @@
         <v>136</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
@@ -7716,7 +7776,7 @@
         <v>125</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -7736,7 +7796,7 @@
         <v>137</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="10" t="s">
@@ -7746,7 +7806,7 @@
         <v>125</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -7766,7 +7826,7 @@
         <v>138</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -7776,7 +7836,7 @@
         <v>125</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -7794,13 +7854,13 @@
     <row r="15" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>

--- a/public/templates/Abnahme FRAGEN.xlsx
+++ b/public/templates/Abnahme FRAGEN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\APROD\Aprod\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD404F5-36E1-4B30-94C0-3842BEC03543}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F290871-1691-4C76-B345-D40882DE8F0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="41280" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1338,7 +1338,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1349,6 +1349,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE6E6FA"/>
         <bgColor rgb="FFE6E6FA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1435,7 +1447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1456,6 +1468,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1739,7 +1755,7 @@
   <dimension ref="A1:Y49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1883,315 +1899,315 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
+    <row r="3" spans="1:25" s="15" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="14">
         <v>2</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1" t="s">
+      <c r="R3" s="14"/>
+      <c r="S3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-    </row>
-    <row r="4" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+    </row>
+    <row r="4" spans="1:25" s="17" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="16">
         <v>3</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1" t="s">
+      <c r="R4" s="16"/>
+      <c r="S4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-    </row>
-    <row r="5" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+    </row>
+    <row r="5" spans="1:25" s="17" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="16">
         <v>4</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1" t="s">
+      <c r="R5" s="16"/>
+      <c r="S5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-    </row>
-    <row r="6" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+    </row>
+    <row r="6" spans="1:25" s="17" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1" t="s">
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="16">
         <v>5</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1" t="s">
+      <c r="R6" s="16"/>
+      <c r="S6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1" t="s">
+      <c r="T6" s="16"/>
+      <c r="U6" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-    </row>
-    <row r="7" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+    </row>
+    <row r="7" spans="1:25" s="17" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1" t="s">
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="16">
         <v>6</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1" t="s">
+      <c r="R7" s="16"/>
+      <c r="S7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1" t="s">
+      <c r="T7" s="16"/>
+      <c r="U7" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-    </row>
-    <row r="8" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+    </row>
+    <row r="8" spans="1:25" s="15" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1" t="s">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="14">
         <v>7</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1" t="s">
+      <c r="R8" s="14"/>
+      <c r="S8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
     </row>
     <row r="9" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
@@ -2244,58 +2260,58 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
+    <row r="10" spans="1:25" s="15" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1" t="s">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="14">
         <v>9</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1" t="s">
+      <c r="R10" s="14"/>
+      <c r="S10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1" t="s">
+      <c r="T10" s="14"/>
+      <c r="U10" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
     </row>
     <row r="11" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
@@ -5398,7 +5414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D002D2D2-CD20-48F6-B52A-09E6DFF1BA72}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>

--- a/public/templates/Abnahme FRAGEN.xlsx
+++ b/public/templates/Abnahme FRAGEN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\APROD\Aprod\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F290871-1691-4C76-B345-D40882DE8F0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD404F5-36E1-4B30-94C0-3842BEC03543}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="41280" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1338,7 +1338,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1349,18 +1349,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE6E6FA"/>
         <bgColor rgb="FFE6E6FA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1447,7 +1435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1468,10 +1456,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1755,7 +1739,7 @@
   <dimension ref="A1:Y49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1899,315 +1883,315 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" s="15" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A3" s="14">
+    <row r="3" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="1">
         <v>2</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14" t="s">
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-    </row>
-    <row r="4" spans="1:25" s="17" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="16">
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+    </row>
+    <row r="4" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="1">
         <v>3</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16" t="s">
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-    </row>
-    <row r="5" spans="1:25" s="17" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A5" s="16">
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="1">
         <v>4</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16" t="s">
+      <c r="R5" s="1"/>
+      <c r="S5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-    </row>
-    <row r="6" spans="1:25" s="17" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A6" s="16">
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="1">
         <v>5</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="N6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q6" s="16" t="s">
+      <c r="Q6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16" t="s">
+      <c r="R6" s="1"/>
+      <c r="S6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16" t="s">
+      <c r="T6" s="1"/>
+      <c r="U6" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-    </row>
-    <row r="7" spans="1:25" s="17" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A7" s="16">
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+    </row>
+    <row r="7" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="1">
         <v>6</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="N7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="P7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="16" t="s">
+      <c r="Q7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16" t="s">
+      <c r="R7" s="1"/>
+      <c r="S7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16" t="s">
+      <c r="T7" s="1"/>
+      <c r="U7" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-    </row>
-    <row r="8" spans="1:25" s="15" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A8" s="14">
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+    </row>
+    <row r="8" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="1">
         <v>7</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q8" s="14" t="s">
+      <c r="Q8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14" t="s">
+      <c r="R8" s="1"/>
+      <c r="S8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
@@ -2260,58 +2244,58 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" s="15" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A10" s="14">
+    <row r="10" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="1">
         <v>9</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="14" t="s">
+      <c r="O10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P10" s="14" t="s">
+      <c r="P10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q10" s="14" t="s">
+      <c r="Q10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14" t="s">
+      <c r="R10" s="1"/>
+      <c r="S10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14" t="s">
+      <c r="T10" s="1"/>
+      <c r="U10" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
@@ -5414,7 +5398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D002D2D2-CD20-48F6-B52A-09E6DFF1BA72}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>

--- a/public/templates/Abnahme FRAGEN.xlsx
+++ b/public/templates/Abnahme FRAGEN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\APROD\Aprod\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PWA\Aprod\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD404F5-36E1-4B30-94C0-3842BEC03543}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03FDE3B-8D95-40EC-93D4-85390CE32F49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="41280" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20448" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="2" r:id="rId1"/>
@@ -1738,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C829CC3F-6FE0-4C51-9144-6919D0578DEB}">
   <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2238,7 +2238,9 @@
         <v>29</v>
       </c>
       <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
+      <c r="U9" s="1" t="s">
+        <v>403</v>
+      </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
@@ -2289,9 +2291,7 @@
         <v>31</v>
       </c>
       <c r="T10" s="1"/>
-      <c r="U10" s="1" t="s">
-        <v>403</v>
-      </c>
+      <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>

--- a/public/templates/Abnahme FRAGEN.xlsx
+++ b/public/templates/Abnahme FRAGEN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PWA\Aprod\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03FDE3B-8D95-40EC-93D4-85390CE32F49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDD8559-7C98-40F2-B867-4D37BA87C744}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20448" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="428">
   <si>
     <t>ID</t>
   </si>
@@ -365,9 +365,6 @@
   </si>
   <si>
     <t>Válasszon</t>
-  </si>
-  <si>
-    <t>placeholder</t>
   </si>
   <si>
     <t>cellReference</t>
@@ -512,9 +509,6 @@
     <t>Radio</t>
   </si>
   <si>
-    <t>akarnmi</t>
-  </si>
-  <si>
     <t>pass</t>
   </si>
   <si>
@@ -1277,13 +1271,49 @@
     <t>options</t>
   </si>
   <si>
-    <t>banán,macska, sajt</t>
-  </si>
-  <si>
     <t>Válasszá more</t>
   </si>
   <si>
     <t>Sok szöveg</t>
+  </si>
+  <si>
+    <t>placeholderDE</t>
+  </si>
+  <si>
+    <t>placeholderHU</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>PLZ</t>
+  </si>
+  <si>
+    <t>Strasse</t>
+  </si>
+  <si>
+    <t>Nummer</t>
+  </si>
+  <si>
+    <t>Lift nr.</t>
+  </si>
+  <si>
+    <t>Filiale</t>
+  </si>
+  <si>
+    <t>Viel text</t>
+  </si>
+  <si>
+    <t>Wahle eine</t>
+  </si>
+  <si>
+    <t>Etwas</t>
+  </si>
+  <si>
+    <t>Akármi</t>
+  </si>
+  <si>
+    <t>Zürich,Luzern,Bern</t>
   </si>
 </sst>
 </file>
@@ -1736,10 +1766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C829CC3F-6FE0-4C51-9144-6919D0578DEB}">
-  <dimension ref="A1:Y49"/>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1758,33 +1788,33 @@
     <col min="12" max="12" width="40.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32" customWidth="1"/>
-    <col min="16" max="16" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="40.88671875" customWidth="1"/>
-    <col min="18" max="18" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="96.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="42" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="32" customWidth="1"/>
+    <col min="17" max="17" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="40.88671875" customWidth="1"/>
+    <col min="19" max="19" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="96.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="42" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="33.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:26" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>98</v>
@@ -1802,35 +1832,38 @@
         <v>106</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="S1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="U1" s="1"/>
-    </row>
-    <row r="2" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="T1" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1865,25 +1898,28 @@
         <v>108</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="1"/>
+      <c r="T2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="V2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
-    </row>
-    <row r="3" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1918,23 +1954,26 @@
         <v>108</v>
       </c>
       <c r="P3" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="1"/>
+      <c r="T3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
-    </row>
-    <row r="4" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1969,23 +2008,26 @@
         <v>10</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="1"/>
+      <c r="T4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
-    </row>
-    <row r="5" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2020,23 +2062,26 @@
         <v>13</v>
       </c>
       <c r="P5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="1"/>
+      <c r="T5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
-    </row>
-    <row r="6" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2071,25 +2116,28 @@
         <v>16</v>
       </c>
       <c r="P6" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1" t="s">
+      <c r="S6" s="1"/>
+      <c r="T6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="V6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
-    </row>
-    <row r="7" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2124,25 +2172,28 @@
         <v>18</v>
       </c>
       <c r="P7" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="1"/>
+      <c r="T7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="V7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
-    </row>
-    <row r="8" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2177,23 +2228,26 @@
         <v>109</v>
       </c>
       <c r="P8" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1" t="s">
+      <c r="S8" s="1"/>
+      <c r="T8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
-    </row>
-    <row r="9" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2228,25 +2282,28 @@
         <v>110</v>
       </c>
       <c r="P9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1" t="s">
+      <c r="S9" s="1"/>
+      <c r="T9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="V9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1" t="s">
+        <v>401</v>
+      </c>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
-    </row>
-    <row r="10" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2281,37 +2338,40 @@
         <v>31</v>
       </c>
       <c r="P10" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1" t="s">
+      <c r="S10" s="1"/>
+      <c r="T10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
-    </row>
-    <row r="11" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -2329,13 +2389,17 @@
         <v>25</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="P11" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
+      <c r="R11" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -2343,25 +2407,26 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
-    </row>
-    <row r="12" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z11" s="1"/>
+    </row>
+    <row r="12" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -2378,13 +2443,17 @@
         <v>25</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="P12" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="R12" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -2392,22 +2461,23 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-    </row>
-    <row r="13" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -2425,13 +2495,17 @@
         <v>25</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>160</v>
+        <v>426</v>
       </c>
       <c r="P13" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
+      <c r="R13" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -2439,22 +2513,23 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
-    </row>
-    <row r="14" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z13" s="1"/>
+    </row>
+    <row r="14" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -2472,24 +2547,29 @@
         <v>25</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-    </row>
-    <row r="15" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z14" s="1"/>
+    </row>
+    <row r="15" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2520,31 +2600,30 @@
       <c r="N15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P15" s="1" t="s">
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="S15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="V15" s="1"/>
+      <c r="T15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-    </row>
-    <row r="16" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z15" s="1"/>
+    </row>
+    <row r="16" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2575,29 +2654,28 @@
       <c r="N16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P16" s="1" t="s">
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-    </row>
-    <row r="17" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2628,29 +2706,28 @@
       <c r="N17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P17" s="1" t="s">
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="R17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1" t="s">
+      <c r="S17" s="1"/>
+      <c r="T17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T17" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="U17" s="1"/>
+      <c r="U17" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-    </row>
-    <row r="18" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2681,27 +2758,26 @@
       <c r="N18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P18" s="1" t="s">
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1" t="s">
+      <c r="S18" s="1"/>
+      <c r="T18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-    </row>
-    <row r="19" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z18" s="1"/>
+    </row>
+    <row r="19" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2732,29 +2808,28 @@
       <c r="N19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="1" t="s">
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="R19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1" t="s">
+      <c r="S19" s="1"/>
+      <c r="T19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="V19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1" t="s">
+        <v>403</v>
+      </c>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
-    </row>
-    <row r="20" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z19" s="1"/>
+    </row>
+    <row r="20" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2785,27 +2860,26 @@
       <c r="N20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P20" s="1" t="s">
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1" t="s">
+      <c r="S20" s="1"/>
+      <c r="T20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-    </row>
-    <row r="21" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z20" s="1"/>
+    </row>
+    <row r="21" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2836,27 +2910,26 @@
       <c r="N21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P21" s="1" t="s">
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1" t="s">
+      <c r="S21" s="1"/>
+      <c r="T21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
-    </row>
-    <row r="22" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z21" s="1"/>
+    </row>
+    <row r="22" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2887,29 +2960,28 @@
       <c r="N22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P22" s="1" t="s">
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="R22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1" t="s">
+      <c r="S22" s="1"/>
+      <c r="T22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="V22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1" t="s">
+        <v>404</v>
+      </c>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
-    </row>
-    <row r="23" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z22" s="1"/>
+    </row>
+    <row r="23" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2940,29 +3012,28 @@
       <c r="N23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O23" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P23" s="1" t="s">
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="R23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1" t="s">
+      <c r="S23" s="1"/>
+      <c r="T23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="V23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-    </row>
-    <row r="24" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z23" s="1"/>
+    </row>
+    <row r="24" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2993,29 +3064,28 @@
       <c r="N24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O24" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P24" s="1" t="s">
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="R24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1" t="s">
+      <c r="S24" s="1"/>
+      <c r="T24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="V24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1" t="s">
+        <v>406</v>
+      </c>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
-    </row>
-    <row r="25" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="25" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3046,27 +3116,26 @@
       <c r="N25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P25" s="1" t="s">
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="R25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1" t="s">
+      <c r="S25" s="1"/>
+      <c r="T25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
-    </row>
-    <row r="26" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z25" s="1"/>
+    </row>
+    <row r="26" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3101,31 +3170,34 @@
         <v>111</v>
       </c>
       <c r="P26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1" t="s">
+      <c r="S26" s="1"/>
+      <c r="T26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
-    </row>
-    <row r="27" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z26" s="1"/>
+    </row>
+    <row r="27" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>4</v>
@@ -3138,7 +3210,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M27" s="1">
         <v>1</v>
@@ -3147,15 +3219,17 @@
         <v>25</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>177</v>
+        <v>409</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="R27" s="1"/>
+        <v>175</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
@@ -3163,8 +3237,9 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
-    </row>
-    <row r="28" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z27" s="1"/>
+    </row>
+    <row r="28" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
         <v>77</v>
       </c>
@@ -3201,17 +3276,18 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
-      <c r="S28" s="2" t="s">
+      <c r="S28" s="1"/>
+      <c r="T28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
-    </row>
-    <row r="29" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z28" s="1"/>
+    </row>
+    <row r="29" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
         <v>81</v>
       </c>
@@ -3248,17 +3324,18 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
-      <c r="S29" s="2" t="s">
+      <c r="S29" s="1"/>
+      <c r="T29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
-    </row>
-    <row r="30" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z29" s="1"/>
+    </row>
+    <row r="30" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
         <v>84</v>
       </c>
@@ -3295,17 +3372,18 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
-      <c r="S30" s="2" t="s">
+      <c r="S30" s="1"/>
+      <c r="T30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
-    </row>
-    <row r="31" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z30" s="1"/>
+    </row>
+    <row r="31" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>87</v>
       </c>
@@ -3348,17 +3426,18 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
-      <c r="S31" s="2" t="s">
+      <c r="S31" s="1"/>
+      <c r="T31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
-    </row>
-    <row r="32" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z31" s="1"/>
+    </row>
+    <row r="32" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>91</v>
       </c>
@@ -3401,17 +3480,18 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="2" t="s">
+      <c r="S32" s="1"/>
+      <c r="T32" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
-    </row>
-    <row r="33" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z32" s="1"/>
+    </row>
+    <row r="33" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3437,8 +3517,9 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
-    </row>
-    <row r="34" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z33" s="1"/>
+    </row>
+    <row r="34" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3464,8 +3545,9 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
-    </row>
-    <row r="35" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z34" s="1"/>
+    </row>
+    <row r="35" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3487,8 +3569,9 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
-    </row>
-    <row r="36" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="V35" s="1"/>
+    </row>
+    <row r="36" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3510,8 +3593,9 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
-    </row>
-    <row r="37" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="V36" s="1"/>
+    </row>
+    <row r="37" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3533,8 +3617,9 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
-    </row>
-    <row r="38" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="V37" s="1"/>
+    </row>
+    <row r="38" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3556,8 +3641,9 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
-    </row>
-    <row r="39" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="V38" s="1"/>
+    </row>
+    <row r="39" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3579,8 +3665,9 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
-    </row>
-    <row r="40" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="V39" s="1"/>
+    </row>
+    <row r="40" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3602,8 +3689,9 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
-    </row>
-    <row r="41" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="V40" s="1"/>
+    </row>
+    <row r="41" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3625,8 +3713,9 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
-    </row>
-    <row r="42" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="V41" s="1"/>
+    </row>
+    <row r="42" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3648,8 +3737,9 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
-    </row>
-    <row r="43" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="V42" s="1"/>
+    </row>
+    <row r="43" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3671,8 +3761,9 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
-    </row>
-    <row r="44" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="V43" s="1"/>
+    </row>
+    <row r="44" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3694,8 +3785,9 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
-    </row>
-    <row r="45" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="V44" s="1"/>
+    </row>
+    <row r="45" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3717,8 +3809,9 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
-    </row>
-    <row r="46" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="V45" s="1"/>
+    </row>
+    <row r="46" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3740,8 +3833,9 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
-    </row>
-    <row r="47" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="V46" s="1"/>
+    </row>
+    <row r="47" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3763,8 +3857,9 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
-    </row>
-    <row r="48" spans="1:25" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="V47" s="1"/>
+    </row>
+    <row r="48" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3786,8 +3881,9 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
-    </row>
-    <row r="49" spans="1:21" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="V48" s="1"/>
+    </row>
+    <row r="49" spans="1:22" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3809,6 +3905,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3839,13 +3936,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -3869,20 +3966,20 @@
     </row>
     <row r="2" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -3900,13 +3997,13 @@
     </row>
     <row r="3" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
@@ -3929,13 +4026,13 @@
     </row>
     <row r="4" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
@@ -3958,13 +4055,13 @@
     </row>
     <row r="5" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
@@ -3987,22 +4084,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -4020,22 +4117,22 @@
     </row>
     <row r="7" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -4053,22 +4150,22 @@
     </row>
     <row r="8" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -4086,22 +4183,22 @@
     </row>
     <row r="9" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -4855,10 +4952,10 @@
   <sheetData>
     <row r="1" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -4879,10 +4976,10 @@
     </row>
     <row r="2" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4903,10 +5000,10 @@
     </row>
     <row r="3" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4927,10 +5024,10 @@
     </row>
     <row r="4" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5415,25 +5512,25 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>186</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -5451,22 +5548,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="F2" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>242</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>244</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -5484,22 +5581,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>243</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>245</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -5517,22 +5614,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -5550,22 +5647,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -5583,22 +5680,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -5616,22 +5713,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>204</v>
-      </c>
       <c r="G7" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -5649,22 +5746,22 @@
         <v>2</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -5682,22 +5779,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -5715,22 +5812,22 @@
         <v>4</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -5748,22 +5845,22 @@
         <v>5</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -5781,22 +5878,22 @@
         <v>6</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -5814,22 +5911,22 @@
         <v>7</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -5847,22 +5944,22 @@
         <v>8</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -5880,22 +5977,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -5913,22 +6010,22 @@
         <v>10</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -5946,22 +6043,22 @@
         <v>11</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -5979,22 +6076,22 @@
         <v>12</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -6012,16 +6109,16 @@
         <v>13</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -6041,22 +6138,22 @@
         <v>14</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -6074,22 +6171,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -6107,22 +6204,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -6140,22 +6237,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -6173,22 +6270,22 @@
         <v>4</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -6206,22 +6303,22 @@
         <v>5</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -6239,22 +6336,22 @@
         <v>6</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -6272,22 +6369,22 @@
         <v>7</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -6305,22 +6402,22 @@
         <v>8</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -6338,22 +6435,22 @@
         <v>9</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -6371,22 +6468,22 @@
         <v>10</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -6404,22 +6501,22 @@
         <v>11</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -6437,22 +6534,22 @@
         <v>12</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -6470,22 +6567,22 @@
         <v>13</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -6503,22 +6600,22 @@
         <v>14</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -6536,16 +6633,16 @@
         <v>15</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
@@ -6565,16 +6662,16 @@
         <v>16</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F36" s="12"/>
       <c r="H36" s="1"/>
@@ -6586,22 +6683,22 @@
         <v>17</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -6612,22 +6709,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -6638,22 +6735,22 @@
         <v>2</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>71</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -6664,22 +6761,22 @@
         <v>3</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -6690,22 +6787,22 @@
         <v>4</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -6716,22 +6813,22 @@
         <v>5</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -6742,22 +6839,22 @@
         <v>6</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -6768,22 +6865,22 @@
         <v>7</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -6794,22 +6891,22 @@
         <v>8</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -6820,22 +6917,22 @@
         <v>9</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -6846,16 +6943,16 @@
         <v>10</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -6868,16 +6965,16 @@
         <v>11</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
@@ -6890,22 +6987,22 @@
         <v>12</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -6916,22 +7013,22 @@
         <v>1</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -6942,22 +7039,22 @@
         <v>2</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -6968,22 +7065,22 @@
         <v>3</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -6994,22 +7091,22 @@
         <v>4</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -7020,22 +7117,22 @@
         <v>5</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -7046,22 +7143,22 @@
         <v>6</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -7072,22 +7169,22 @@
         <v>7</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -7098,16 +7195,16 @@
         <v>8</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
@@ -7120,16 +7217,16 @@
         <v>9</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
@@ -7142,22 +7239,22 @@
         <v>10</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -7168,22 +7265,22 @@
         <v>1</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -7194,22 +7291,22 @@
         <v>2</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -7220,22 +7317,22 @@
         <v>3</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -7246,22 +7343,22 @@
         <v>4</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -7272,22 +7369,22 @@
         <v>5</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -7298,22 +7395,22 @@
         <v>6</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -7324,16 +7421,16 @@
         <v>7</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
@@ -7346,16 +7443,16 @@
         <v>8</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
@@ -7368,22 +7465,22 @@
         <v>9</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -7427,22 +7524,22 @@
   <sheetData>
     <row r="1" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="13" t="s">
         <v>369</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>371</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -7459,22 +7556,22 @@
     </row>
     <row r="2" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -7491,22 +7588,22 @@
     </row>
     <row r="3" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -7523,20 +7620,20 @@
     </row>
     <row r="4" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -7553,20 +7650,20 @@
     </row>
     <row r="5" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -7583,20 +7680,20 @@
     </row>
     <row r="6" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -7613,20 +7710,20 @@
     </row>
     <row r="7" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -7643,20 +7740,20 @@
     </row>
     <row r="8" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -7673,20 +7770,20 @@
     </row>
     <row r="9" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -7703,20 +7800,20 @@
     </row>
     <row r="10" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -7733,20 +7830,20 @@
     </row>
     <row r="11" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -7763,20 +7860,20 @@
     </row>
     <row r="12" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -7793,20 +7890,20 @@
     </row>
     <row r="13" spans="1:18" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -7823,20 +7920,20 @@
     </row>
     <row r="14" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -7854,13 +7951,13 @@
     <row r="15" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>

--- a/public/templates/Abnahme FRAGEN.xlsx
+++ b/public/templates/Abnahme FRAGEN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PWA\Aprod\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDD8559-7C98-40F2-B867-4D37BA87C744}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43922B6-B770-4DA5-9EEA-DB0D7A5134A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20448" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="429">
   <si>
     <t>ID</t>
   </si>
@@ -1314,6 +1314,9 @@
   </si>
   <si>
     <t>Zürich,Luzern,Bern</t>
+  </si>
+  <si>
+    <t>Gib ein</t>
   </si>
 </sst>
 </file>
@@ -1768,8 +1771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C829CC3F-6FE0-4C51-9144-6919D0578DEB}">
   <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3170,7 +3173,7 @@
         <v>111</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>111</v>
+        <v>424</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>73</v>
@@ -3222,7 +3225,7 @@
         <v>409</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>175</v>

--- a/public/templates/Abnahme FRAGEN.xlsx
+++ b/public/templates/Abnahme FRAGEN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PWA\Aprod\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43922B6-B770-4DA5-9EEA-DB0D7A5134A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDA0670-A670-438B-B3D2-7E935F26467E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20448" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1771,8 +1771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C829CC3F-6FE0-4C51-9144-6919D0578DEB}">
   <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="F17" sqref="A17:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/public/templates/Abnahme FRAGEN.xlsx
+++ b/public/templates/Abnahme FRAGEN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PWA\Aprod\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDA0670-A670-438B-B3D2-7E935F26467E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37716753-6609-4257-8457-80EA028FD388}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20448" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="536">
   <si>
     <t>ID</t>
   </si>
@@ -1127,24 +1127,6 @@
     <t>Kabinküszöb</t>
   </si>
   <si>
-    <t>IDOSEK</t>
-  </si>
-  <si>
-    <t>nameHUNGARI</t>
-  </si>
-  <si>
-    <t>nameDEUCSE</t>
-  </si>
-  <si>
-    <t>groupNameXI</t>
-  </si>
-  <si>
-    <t>categoryVALAMI</t>
-  </si>
-  <si>
-    <t>unithe</t>
-  </si>
-  <si>
     <t>titleHu</t>
   </si>
   <si>
@@ -1317,6 +1299,345 @@
   </si>
   <si>
     <t>Gib ein</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>nameDE</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Inspector's Name</t>
+  </si>
+  <si>
+    <t>Inspector's/Repairer's Name</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Street Address</t>
+  </si>
+  <si>
+    <t>House Number</t>
+  </si>
+  <si>
+    <t>Project Number</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>Question 1</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Tel.</t>
+  </si>
+  <si>
+    <t>X Question</t>
+  </si>
+  <si>
+    <t>Question was</t>
+  </si>
+  <si>
+    <t>titleEn</t>
+  </si>
+  <si>
+    <t>titleFr</t>
+  </si>
+  <si>
+    <t>titleIt</t>
+  </si>
+  <si>
+    <t>Installation of a VF inverter</t>
+  </si>
+  <si>
+    <t>Installation of a cabin door</t>
+  </si>
+  <si>
+    <t>Installation of a CC/VF cabin door drive</t>
+  </si>
+  <si>
+    <t>Installation of a new controller</t>
+  </si>
+  <si>
+    <t>Complete control system including COP, HB &amp; HP</t>
+  </si>
+  <si>
+    <t>Machine/suspension cables</t>
+  </si>
+  <si>
+    <t>Regulator/tensioning device &amp; cables</t>
+  </si>
+  <si>
+    <t>Cabin &amp; cabin door</t>
+  </si>
+  <si>
+    <t>Door lock for revolving doors</t>
+  </si>
+  <si>
+    <t>Shaft doors</t>
+  </si>
+  <si>
+    <t>Inverter type</t>
+  </si>
+  <si>
+    <t>Distance between cabin roof and shaft head</t>
+  </si>
+  <si>
+    <t>Upper part of the arched passage at the lowest point of the shaft head</t>
+  </si>
+  <si>
+    <t>Overrun distance until the counterweight touches the buffer</t>
+  </si>
+  <si>
+    <t>Effective safety distance A</t>
+  </si>
+  <si>
+    <t>Effective safety distance B</t>
+  </si>
+  <si>
+    <t>Otis Lift Number</t>
+  </si>
+  <si>
+    <t>Nom de l'inspecteur</t>
+  </si>
+  <si>
+    <t>Nom de l'inspecteur/réparateur</t>
+  </si>
+  <si>
+    <t>Code postal</t>
+  </si>
+  <si>
+    <t>Ville</t>
+  </si>
+  <si>
+    <t>Adresse</t>
+  </si>
+  <si>
+    <t>Numéro</t>
+  </si>
+  <si>
+    <t>Numéro d'ascenseur Otis</t>
+  </si>
+  <si>
+    <t>Numéro de projet</t>
+  </si>
+  <si>
+    <t>Organisme</t>
+  </si>
+  <si>
+    <t>Réponse</t>
+  </si>
+  <si>
+    <t>Tél.</t>
+  </si>
+  <si>
+    <t>La question était :</t>
+  </si>
+  <si>
+    <t>Installation d'un variateur de fréquence</t>
+  </si>
+  <si>
+    <t>Installation d'une porte de cabine</t>
+  </si>
+  <si>
+    <t>Installation d'un entraînement de porte de cabine CC/VF</t>
+  </si>
+  <si>
+    <t>Installation d'un nouveau contrôleur</t>
+  </si>
+  <si>
+    <t>Système de contrôle complet incluant COP, HB et HP</t>
+  </si>
+  <si>
+    <t>Câbles machine/suspension</t>
+  </si>
+  <si>
+    <t>Régulateur/dispositif de tension et câbles</t>
+  </si>
+  <si>
+    <t>Cabine et porte de cabine</t>
+  </si>
+  <si>
+    <t>Serrure de porte pour portes tournantes</t>
+  </si>
+  <si>
+    <t>Portes de la gaine</t>
+  </si>
+  <si>
+    <t>Type d'inverseur</t>
+  </si>
+  <si>
+    <t>Distance entre le toit de la cabine et la tête de gaine</t>
+  </si>
+  <si>
+    <t>Partie supérieure du passage voûté au point le plus bas de la tête de gaine</t>
+  </si>
+  <si>
+    <t>Distance de dépassement jusqu'à ce que le contrepoids touche le tampon</t>
+  </si>
+  <si>
+    <t>Distance de sécurité effective A</t>
+  </si>
+  <si>
+    <t>Distance de sécurité effective B</t>
+  </si>
+  <si>
+    <t>Nome dell'ispettore</t>
+  </si>
+  <si>
+    <t>Nome dell'ispettore/riparatore</t>
+  </si>
+  <si>
+    <t>Codice postale</t>
+  </si>
+  <si>
+    <t>Città</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>Numero civico</t>
+  </si>
+  <si>
+    <t>Numero dell'ascensore Otis</t>
+  </si>
+  <si>
+    <t>Numero del progetto</t>
+  </si>
+  <si>
+    <t>Agenzia</t>
+  </si>
+  <si>
+    <t>Domanda 1</t>
+  </si>
+  <si>
+    <t>Risposta</t>
+  </si>
+  <si>
+    <t>Domanda X</t>
+  </si>
+  <si>
+    <t>La domanda era:</t>
+  </si>
+  <si>
+    <t>Installazione di un inverter VF</t>
+  </si>
+  <si>
+    <t>Installazione di una porta di cabina</t>
+  </si>
+  <si>
+    <t>Installazione di un azionamento per porta di cabina CC/VF</t>
+  </si>
+  <si>
+    <t>Installazione di un nuovo controller</t>
+  </si>
+  <si>
+    <t>Sistema di controllo completo, inclusi COP, HB e HP</t>
+  </si>
+  <si>
+    <t>Cavi macchina/sospensione</t>
+  </si>
+  <si>
+    <t>Dispositivo di regolazione/tensionamento e cavi</t>
+  </si>
+  <si>
+    <t>Cabina e porta di cabina</t>
+  </si>
+  <si>
+    <t>Bloccaggio per porte girevoli</t>
+  </si>
+  <si>
+    <t>Porte del vano</t>
+  </si>
+  <si>
+    <t>Tipo di inverter</t>
+  </si>
+  <si>
+    <t>Distanza tra il tetto della cabina e la testa del vano</t>
+  </si>
+  <si>
+    <t>Parte superiore del passaggio ad arco nel punto più basso della testa del vano</t>
+  </si>
+  <si>
+    <t>Distanza di superamento fino a quando il contrappeso tocca il respingente</t>
+  </si>
+  <si>
+    <t>Distanza di sicurezza effettiva A</t>
+  </si>
+  <si>
+    <t>Distanza di sicurezza effettiva B</t>
+  </si>
+  <si>
+    <t>nameHU</t>
+  </si>
+  <si>
+    <t>group_title_en</t>
+  </si>
+  <si>
+    <t>Balance Sheet</t>
+  </si>
+  <si>
+    <t>1.Inspection in the Engine Room</t>
+  </si>
+  <si>
+    <t>2.Inspection on the Cabin Roof</t>
+  </si>
+  <si>
+    <t>3. Inspection in Shaft</t>
+  </si>
+  <si>
+    <t>4. Inspection in the Shaft Pit</t>
+  </si>
+  <si>
+    <t>5. Inspection in the Cabin</t>
+  </si>
+  <si>
+    <t>placeholderEN</t>
+  </si>
+  <si>
+    <t>ZipCode</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Lots of text</t>
+  </si>
+  <si>
+    <t>Select more</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>groupNameEn</t>
+  </si>
+  <si>
+    <t>General Data</t>
+  </si>
+  <si>
+    <t>Engine Room</t>
+  </si>
+  <si>
+    <t>Affected by Modernization</t>
   </si>
 </sst>
 </file>
@@ -1769,38 +2090,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C829CC3F-6FE0-4C51-9144-6919D0578DEB}">
-  <dimension ref="A1:Z49"/>
+  <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="F17" sqref="A17:XFD24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.21875" customWidth="1"/>
     <col min="2" max="2" width="90.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="98.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="69.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="69.6640625" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="32" customWidth="1"/>
-    <col min="17" max="17" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="40.88671875" customWidth="1"/>
-    <col min="19" max="19" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="96.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="42" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="106.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="114.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="121.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="98.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="69.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="69.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="32" customWidth="1"/>
+    <col min="21" max="21" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="40.88671875" customWidth="1"/>
+    <col min="23" max="23" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="96.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="42" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:31" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1811,62 +2136,77 @@
         <v>114</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="U1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="W1" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="X1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="U1" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="Z1" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1877,52 +2217,67 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="1">
+      <c r="P2" s="1">
         <v>1</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1" t="s">
+      <c r="W2" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA2" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+    </row>
+    <row r="3" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1933,50 +2288,65 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="1">
+      <c r="P3" s="1">
         <v>2</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+      <c r="S3" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1" t="s">
+      <c r="W3" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+    </row>
+    <row r="4" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1987,50 +2357,65 @@
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="1">
+      <c r="P4" s="1">
         <v>3</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+      <c r="S4" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1" t="s">
+      <c r="W4" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+    </row>
+    <row r="5" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2041,50 +2426,65 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="1">
+      <c r="P5" s="1">
         <v>4</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="T5" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1" t="s">
+      <c r="W5" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+    </row>
+    <row r="6" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2095,52 +2495,67 @@
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="1">
+      <c r="P6" s="1">
         <v>5</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q6" s="1" t="s">
+      <c r="S6" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1" t="s">
+      <c r="W6" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1" t="s">
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+    </row>
+    <row r="7" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2151,52 +2566,67 @@
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="1">
+      <c r="P7" s="1">
         <v>6</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q7" s="1" t="s">
+      <c r="S7" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1" t="s">
+      <c r="W7" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA7" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+    </row>
+    <row r="8" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2207,50 +2637,65 @@
         <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="1">
+      <c r="P8" s="1">
         <v>7</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q8" s="1" t="s">
+      <c r="S8" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1" t="s">
+      <c r="W8" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+    </row>
+    <row r="9" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2261,52 +2706,67 @@
         <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="1">
+      <c r="P9" s="1">
         <v>8</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="T9" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1" t="s">
+      <c r="W9" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA9" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+    </row>
+    <row r="10" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2317,50 +2777,65 @@
         <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="1">
+      <c r="P10" s="1">
         <v>9</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q10" s="1" t="s">
+      <c r="S10" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1" t="s">
+      <c r="W10" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+    </row>
+    <row r="11" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2371,48 +2846,63 @@
         <v>152</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M11" s="1">
+      <c r="P11" s="1">
         <v>10</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
+      <c r="W11" s="1" t="s">
+        <v>533</v>
+      </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+    </row>
+    <row r="12" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2420,53 +2910,68 @@
         <v>153</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>421</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M12" s="1">
+      <c r="P12" s="1">
         <v>11</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="U12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
+      <c r="W12" s="1" t="s">
+        <v>533</v>
+      </c>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+    </row>
+    <row r="13" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2477,48 +2982,63 @@
         <v>157</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M13" s="1">
+      <c r="P13" s="1">
         <v>12</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q13" s="1" t="s">
+      <c r="R13" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="U13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
+      <c r="W13" s="1" t="s">
+        <v>533</v>
+      </c>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
-    </row>
-    <row r="14" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+    </row>
+    <row r="14" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2529,50 +3049,65 @@
         <v>158</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M14" s="1">
+      <c r="P14" s="1">
         <v>13</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="T14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="U14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="W14" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="X14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+    </row>
+    <row r="15" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2583,50 +3118,63 @@
         <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M15" s="1">
+      <c r="P15" s="1">
         <v>1</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="V15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="W15" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="X15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="Y15" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-    </row>
-    <row r="16" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA15" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+    </row>
+    <row r="16" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2637,48 +3185,61 @@
         <v>39</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M16" s="1">
+      <c r="P16" s="1">
         <v>2</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="V16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="W16" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="X16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="Y16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+    </row>
+    <row r="17" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2689,48 +3250,61 @@
         <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M17" s="1">
+      <c r="P17" s="1">
         <v>1</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="Q17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1" t="s">
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="V17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1" t="s">
+      <c r="W17" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="Z17" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-    </row>
-    <row r="18" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+    </row>
+    <row r="18" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2741,46 +3315,59 @@
         <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M18" s="1">
+      <c r="P18" s="1">
         <v>2</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1" t="s">
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="V18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1" t="s">
+      <c r="W18" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+    </row>
+    <row r="19" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2791,48 +3378,61 @@
         <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M19" s="1">
+      <c r="P19" s="1">
         <v>3</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1" t="s">
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="V19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1" t="s">
+      <c r="W19" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
-    </row>
-    <row r="20" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA19" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+    </row>
+    <row r="20" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2843,46 +3443,59 @@
         <v>57</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M20" s="1">
+      <c r="P20" s="1">
         <v>4</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1" t="s">
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="V20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1" t="s">
+      <c r="W20" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
-    </row>
-    <row r="21" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+    </row>
+    <row r="21" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2893,46 +3506,59 @@
         <v>58</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="1" t="s">
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M21" s="1">
+      <c r="P21" s="1">
         <v>5</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1" t="s">
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="V21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1" t="s">
+      <c r="W21" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
-    </row>
-    <row r="22" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+    </row>
+    <row r="22" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2943,48 +3569,61 @@
         <v>59</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M22" s="1">
+      <c r="P22" s="1">
         <v>6</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1" t="s">
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="V22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1" t="s">
+      <c r="W22" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
-    </row>
-    <row r="23" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA22" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+    </row>
+    <row r="23" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2995,48 +3634,61 @@
         <v>60</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M23" s="1">
+      <c r="P23" s="1">
         <v>7</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="Q23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1" t="s">
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="V23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1" t="s">
+      <c r="W23" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
-    </row>
-    <row r="24" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA23" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+    </row>
+    <row r="24" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3047,48 +3699,61 @@
         <v>61</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M24" s="1">
+      <c r="P24" s="1">
         <v>8</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="Q24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1" t="s">
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="V24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1" t="s">
+      <c r="W24" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
-    </row>
-    <row r="25" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA24" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+    </row>
+    <row r="25" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3099,46 +3764,59 @@
         <v>62</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M25" s="1">
+      <c r="P25" s="1">
         <v>9</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="Q25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1" t="s">
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="V25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1" t="s">
+      <c r="W25" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
-    </row>
-    <row r="26" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+    </row>
+    <row r="26" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3149,100 +3827,124 @@
         <v>63</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="1" t="s">
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M26" s="1">
+      <c r="P26" s="1">
         <v>10</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="Q26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q26" s="1" t="s">
+      <c r="S26" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="V26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1" t="s">
+      <c r="W26" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
-    </row>
-    <row r="27" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+    </row>
+    <row r="27" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="M27" s="1">
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="P27" s="1">
         <v>1</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="Q27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O27" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q27" s="1" t="s">
+      <c r="R27" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="R27" s="1" t="s">
+      <c r="V27" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
-    </row>
-    <row r="28" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+    </row>
+    <row r="28" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
         <v>77</v>
       </c>
@@ -3253,44 +3955,55 @@
         <v>79</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
+      <c r="I28" s="2"/>
+      <c r="J28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="1" t="s">
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="M28" s="1">
+      <c r="P28" s="1">
         <v>1</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="Q28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-      <c r="T28" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
+      <c r="Y28" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="Z28" s="1"/>
-    </row>
-    <row r="29" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+    </row>
+    <row r="29" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
         <v>81</v>
       </c>
@@ -3301,44 +4014,55 @@
         <v>83</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
+      <c r="I29" s="2"/>
+      <c r="J29" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="1" t="s">
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="M29" s="1">
+      <c r="P29" s="1">
         <v>2</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="Q29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
-      <c r="T29" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
+      <c r="Y29" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="Z29" s="1"/>
-    </row>
-    <row r="30" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+    </row>
+    <row r="30" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
         <v>84</v>
       </c>
@@ -3349,44 +4073,55 @@
         <v>86</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
+      <c r="I30" s="2"/>
+      <c r="J30" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="1" t="s">
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="M30" s="1">
+      <c r="P30" s="1">
         <v>3</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="Q30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
-      <c r="T30" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
+      <c r="Y30" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="Z30" s="1"/>
-    </row>
-    <row r="31" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+    </row>
+    <row r="31" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>87</v>
       </c>
@@ -3397,50 +4132,61 @@
         <v>89</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J31" s="2">
+      <c r="M31" s="2">
         <v>700</v>
       </c>
-      <c r="K31" s="2">
+      <c r="N31" s="2">
         <v>9000</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="O31" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="M31" s="1">
+      <c r="P31" s="1">
         <v>4</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="Q31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
-      <c r="T31" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
+      <c r="Y31" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="Z31" s="1"/>
-    </row>
-    <row r="32" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+    </row>
+    <row r="32" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>91</v>
       </c>
@@ -3451,50 +4197,61 @@
         <v>93</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="L32" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J32" s="2">
+      <c r="M32" s="2">
         <v>400</v>
       </c>
-      <c r="K32" s="2">
+      <c r="N32" s="2">
         <v>9000</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="O32" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="M32" s="1">
+      <c r="P32" s="1">
         <v>5</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="Q32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
-      <c r="T32" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
+      <c r="Y32" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="Z32" s="1"/>
-    </row>
-    <row r="33" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+    </row>
+    <row r="33" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3521,8 +4278,13 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
-    </row>
-    <row r="34" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+    </row>
+    <row r="34" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3549,8 +4311,13 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
-    </row>
-    <row r="35" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+    </row>
+    <row r="35" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3573,8 +4340,13 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
-    </row>
-    <row r="36" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+    </row>
+    <row r="36" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3597,8 +4369,13 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
-    </row>
-    <row r="37" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+    </row>
+    <row r="37" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3621,8 +4398,13 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
-    </row>
-    <row r="38" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+    </row>
+    <row r="38" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3645,8 +4427,13 @@
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
-    </row>
-    <row r="39" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+    </row>
+    <row r="39" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3669,8 +4456,13 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
-    </row>
-    <row r="40" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+    </row>
+    <row r="40" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3693,8 +4485,13 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
-    </row>
-    <row r="41" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+    </row>
+    <row r="41" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3717,8 +4514,13 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
-    </row>
-    <row r="42" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+    </row>
+    <row r="42" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3741,8 +4543,13 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
-    </row>
-    <row r="43" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+    </row>
+    <row r="43" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3765,8 +4572,13 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
-    </row>
-    <row r="44" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+    </row>
+    <row r="44" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3789,8 +4601,13 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
-    </row>
-    <row r="45" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+    </row>
+    <row r="45" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3813,8 +4630,13 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
-    </row>
-    <row r="46" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+    </row>
+    <row r="46" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3837,8 +4659,13 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
-    </row>
-    <row r="47" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+    </row>
+    <row r="47" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3861,8 +4688,13 @@
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
-    </row>
-    <row r="48" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+    </row>
+    <row r="48" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3885,8 +4717,13 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
-    </row>
-    <row r="49" spans="1:22" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+    </row>
+    <row r="49" spans="1:27" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3909,6 +4746,11 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3942,10 +4784,10 @@
         <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -3969,13 +4811,13 @@
     </row>
     <row r="2" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12" t="s">
@@ -4000,13 +4842,13 @@
     </row>
     <row r="3" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
@@ -4029,13 +4871,13 @@
     </row>
     <row r="4" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
@@ -4058,13 +4900,13 @@
     </row>
     <row r="5" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
@@ -4087,22 +4929,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -4120,22 +4962,22 @@
     </row>
     <row r="7" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -4153,22 +4995,22 @@
     </row>
     <row r="8" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -4186,22 +5028,22 @@
     </row>
     <row r="9" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -5496,10 +6338,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D002D2D2-CD20-48F6-B52A-09E6DFF1BA72}">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5508,12 +6350,13 @@
     <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="88.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="107.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.21875" customWidth="1"/>
+    <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="107.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>189</v>
       </c>
@@ -5527,26 +6370,29 @@
         <v>183</v>
       </c>
       <c r="E1" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="11"/>
+      <c r="K1" s="1"/>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
-    </row>
-    <row r="2" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R1" s="11"/>
+    </row>
+    <row r="2" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -5560,26 +6406,29 @@
         <v>240</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="11"/>
+      <c r="K2" s="1"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
-    </row>
-    <row r="3" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R2" s="11"/>
+    </row>
+    <row r="3" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -5593,26 +6442,29 @@
         <v>240</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="11"/>
+      <c r="K3" s="1"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
-    </row>
-    <row r="4" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R3" s="11"/>
+    </row>
+    <row r="4" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -5626,26 +6478,29 @@
         <v>240</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="H4" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="11"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
-    </row>
-    <row r="5" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R4" s="11"/>
+    </row>
+    <row r="5" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -5659,26 +6514,29 @@
         <v>240</v>
       </c>
       <c r="E5" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="H5" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="11"/>
+      <c r="K5" s="1"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
-    </row>
-    <row r="6" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R5" s="11"/>
+    </row>
+    <row r="6" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -5692,26 +6550,29 @@
         <v>240</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="H6" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="11"/>
+      <c r="K6" s="1"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
-    </row>
-    <row r="7" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R6" s="11"/>
+    </row>
+    <row r="7" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A7" s="12">
         <v>1</v>
       </c>
@@ -5725,26 +6586,29 @@
         <v>194</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="H7" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="11"/>
+      <c r="K7" s="1"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
-    </row>
-    <row r="8" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R7" s="11"/>
+    </row>
+    <row r="8" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A8" s="12">
         <v>2</v>
       </c>
@@ -5758,26 +6622,29 @@
         <v>194</v>
       </c>
       <c r="E8" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="H8" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="11"/>
+      <c r="K8" s="1"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
-    </row>
-    <row r="9" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R8" s="11"/>
+    </row>
+    <row r="9" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A9" s="12">
         <v>3</v>
       </c>
@@ -5791,26 +6658,29 @@
         <v>194</v>
       </c>
       <c r="E9" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="11"/>
+      <c r="K9" s="1"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
-    </row>
-    <row r="10" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R9" s="11"/>
+    </row>
+    <row r="10" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
         <v>4</v>
       </c>
@@ -5824,26 +6694,29 @@
         <v>194</v>
       </c>
       <c r="E10" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="11"/>
+      <c r="K10" s="1"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
-    </row>
-    <row r="11" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R10" s="11"/>
+    </row>
+    <row r="11" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
         <v>5</v>
       </c>
@@ -5857,26 +6730,29 @@
         <v>194</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="H11" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="11"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
-    </row>
-    <row r="12" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R11" s="11"/>
+    </row>
+    <row r="12" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
         <v>6</v>
       </c>
@@ -5890,26 +6766,29 @@
         <v>194</v>
       </c>
       <c r="E12" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="G12" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="H12" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="11"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
-    </row>
-    <row r="13" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R12" s="11"/>
+    </row>
+    <row r="13" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A13" s="12">
         <v>7</v>
       </c>
@@ -5923,26 +6802,29 @@
         <v>194</v>
       </c>
       <c r="E13" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="G13" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="H13" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="11"/>
+      <c r="K13" s="1"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
-    </row>
-    <row r="14" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R13" s="11"/>
+    </row>
+    <row r="14" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A14" s="12">
         <v>8</v>
       </c>
@@ -5956,26 +6838,29 @@
         <v>194</v>
       </c>
       <c r="E14" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="G14" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="H14" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="11"/>
+      <c r="K14" s="1"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
-    </row>
-    <row r="15" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R14" s="11"/>
+    </row>
+    <row r="15" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A15" s="12">
         <v>9</v>
       </c>
@@ -5989,26 +6874,29 @@
         <v>194</v>
       </c>
       <c r="E15" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="G15" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="H15" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="11"/>
+      <c r="K15" s="1"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
-    </row>
-    <row r="16" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R15" s="11"/>
+    </row>
+    <row r="16" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
         <v>10</v>
       </c>
@@ -6022,26 +6910,29 @@
         <v>194</v>
       </c>
       <c r="E16" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="G16" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="H16" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="11"/>
+      <c r="K16" s="1"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
-    </row>
-    <row r="17" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R16" s="11"/>
+    </row>
+    <row r="17" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A17" s="12">
         <v>11</v>
       </c>
@@ -6055,26 +6946,29 @@
         <v>194</v>
       </c>
       <c r="E17" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="G17" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="H17" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="11"/>
+      <c r="K17" s="1"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
-    </row>
-    <row r="18" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R17" s="11"/>
+    </row>
+    <row r="18" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
         <v>12</v>
       </c>
@@ -6088,26 +6982,29 @@
         <v>194</v>
       </c>
       <c r="E18" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="G18" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="H18" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="11"/>
+      <c r="K18" s="1"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
-    </row>
-    <row r="19" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R18" s="11"/>
+    </row>
+    <row r="19" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A19" s="12">
         <v>13</v>
       </c>
@@ -6121,22 +7018,25 @@
         <v>194</v>
       </c>
       <c r="E19" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="12"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="11"/>
+      <c r="K19" s="1"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
-    </row>
-    <row r="20" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R19" s="11"/>
+    </row>
+    <row r="20" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A20" s="12">
         <v>14</v>
       </c>
@@ -6150,26 +7050,29 @@
         <v>194</v>
       </c>
       <c r="E20" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="G20" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="H20" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="11"/>
+      <c r="K20" s="1"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
-    </row>
-    <row r="21" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A21" s="12">
         <v>1</v>
       </c>
@@ -6183,26 +7086,29 @@
         <v>231</v>
       </c>
       <c r="E21" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="G21" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="H21" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="11"/>
+      <c r="K21" s="1"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
-    </row>
-    <row r="22" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R21" s="11"/>
+    </row>
+    <row r="22" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A22" s="12">
         <v>2</v>
       </c>
@@ -6216,26 +7122,29 @@
         <v>231</v>
       </c>
       <c r="E22" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="G22" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="H22" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="11"/>
+      <c r="K22" s="1"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
-    </row>
-    <row r="23" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R22" s="11"/>
+    </row>
+    <row r="23" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A23" s="12">
         <v>3</v>
       </c>
@@ -6249,26 +7158,29 @@
         <v>231</v>
       </c>
       <c r="E23" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="G23" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="H23" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="11"/>
+      <c r="K23" s="1"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
-    </row>
-    <row r="24" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R23" s="11"/>
+    </row>
+    <row r="24" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
         <v>4</v>
       </c>
@@ -6282,26 +7194,29 @@
         <v>231</v>
       </c>
       <c r="E24" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="G24" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="H24" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="11"/>
+      <c r="K24" s="1"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
-    </row>
-    <row r="25" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R24" s="11"/>
+    </row>
+    <row r="25" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A25" s="12">
         <v>5</v>
       </c>
@@ -6315,26 +7230,29 @@
         <v>231</v>
       </c>
       <c r="E25" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="G25" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="H25" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="11"/>
+      <c r="K25" s="1"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
-    </row>
-    <row r="26" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R25" s="11"/>
+    </row>
+    <row r="26" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A26" s="12">
         <v>6</v>
       </c>
@@ -6348,26 +7266,29 @@
         <v>231</v>
       </c>
       <c r="E26" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="G26" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="H26" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="11"/>
+      <c r="K26" s="1"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
-    </row>
-    <row r="27" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R26" s="11"/>
+    </row>
+    <row r="27" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A27" s="12">
         <v>7</v>
       </c>
@@ -6381,26 +7302,29 @@
         <v>231</v>
       </c>
       <c r="E27" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="G27" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="H27" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="11"/>
+      <c r="K27" s="1"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
-    </row>
-    <row r="28" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R27" s="11"/>
+    </row>
+    <row r="28" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A28" s="12">
         <v>8</v>
       </c>
@@ -6414,26 +7338,29 @@
         <v>231</v>
       </c>
       <c r="E28" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="G28" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="H28" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="11"/>
+      <c r="K28" s="1"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
-    </row>
-    <row r="29" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R28" s="11"/>
+    </row>
+    <row r="29" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A29" s="12">
         <v>9</v>
       </c>
@@ -6447,26 +7374,29 @@
         <v>231</v>
       </c>
       <c r="E29" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="G29" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="H29" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="11"/>
+      <c r="K29" s="1"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
-    </row>
-    <row r="30" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R29" s="11"/>
+    </row>
+    <row r="30" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A30" s="12">
         <v>10</v>
       </c>
@@ -6480,26 +7410,29 @@
         <v>231</v>
       </c>
       <c r="E30" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="G30" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="H30" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="11"/>
+      <c r="K30" s="1"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
-    </row>
-    <row r="31" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R30" s="11"/>
+    </row>
+    <row r="31" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A31" s="12">
         <v>11</v>
       </c>
@@ -6513,26 +7446,29 @@
         <v>231</v>
       </c>
       <c r="E31" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="G31" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="H31" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="11"/>
+      <c r="K31" s="1"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
-    </row>
-    <row r="32" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R31" s="11"/>
+    </row>
+    <row r="32" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A32" s="12">
         <v>12</v>
       </c>
@@ -6546,26 +7482,29 @@
         <v>231</v>
       </c>
       <c r="E32" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="F32" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="G32" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="H32" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="11"/>
+      <c r="K32" s="1"/>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
-    </row>
-    <row r="33" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R32" s="11"/>
+    </row>
+    <row r="33" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A33" s="12">
         <v>13</v>
       </c>
@@ -6579,26 +7518,29 @@
         <v>231</v>
       </c>
       <c r="E33" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="F33" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="G33" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="H33" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="11"/>
+      <c r="K33" s="1"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
-    </row>
-    <row r="34" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R33" s="11"/>
+    </row>
+    <row r="34" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A34" s="12">
         <v>14</v>
       </c>
@@ -6612,26 +7554,29 @@
         <v>231</v>
       </c>
       <c r="E34" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="F34" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="G34" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="H34" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="11"/>
+      <c r="K34" s="1"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
-    </row>
-    <row r="35" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R34" s="11"/>
+    </row>
+    <row r="35" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A35" s="12">
         <v>15</v>
       </c>
@@ -6645,22 +7590,25 @@
         <v>231</v>
       </c>
       <c r="E35" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="F35" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="F35" s="12"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="1"/>
+      <c r="H35" s="12"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="11"/>
+      <c r="K35" s="1"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
-    </row>
-    <row r="36" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="R35" s="11"/>
+    </row>
+    <row r="36" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A36" s="12">
         <v>16</v>
       </c>
@@ -6674,14 +7622,17 @@
         <v>231</v>
       </c>
       <c r="E36" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="F36" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="F36" s="12"/>
-      <c r="H36" s="1"/>
+      <c r="G36" s="12"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A37" s="12">
         <v>17</v>
       </c>
@@ -6695,19 +7646,22 @@
         <v>231</v>
       </c>
       <c r="E37" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="F37" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="G37" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="H37" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A38" s="12">
         <v>1</v>
       </c>
@@ -6721,19 +7675,22 @@
         <v>232</v>
       </c>
       <c r="E38" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="F38" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="G38" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="H38" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A39" s="12">
         <v>2</v>
       </c>
@@ -6747,19 +7704,22 @@
         <v>232</v>
       </c>
       <c r="E39" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="G39" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="H39" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A40" s="12">
         <v>3</v>
       </c>
@@ -6773,19 +7733,22 @@
         <v>232</v>
       </c>
       <c r="E40" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="F40" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="G40" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="H40" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A41" s="12">
         <v>4</v>
       </c>
@@ -6799,19 +7762,22 @@
         <v>232</v>
       </c>
       <c r="E41" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="F41" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="G41" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="H41" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A42" s="12">
         <v>5</v>
       </c>
@@ -6825,19 +7791,22 @@
         <v>232</v>
       </c>
       <c r="E42" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="F42" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="G42" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="H42" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A43" s="12">
         <v>6</v>
       </c>
@@ -6851,19 +7820,22 @@
         <v>232</v>
       </c>
       <c r="E43" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="F43" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="G43" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="H43" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A44" s="12">
         <v>7</v>
       </c>
@@ -6877,19 +7849,22 @@
         <v>232</v>
       </c>
       <c r="E44" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="F44" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="G44" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="H44" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A45" s="12">
         <v>8</v>
       </c>
@@ -6903,19 +7878,22 @@
         <v>232</v>
       </c>
       <c r="E45" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="F45" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="G45" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="H45" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A46" s="12">
         <v>9</v>
       </c>
@@ -6929,19 +7907,22 @@
         <v>232</v>
       </c>
       <c r="E46" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="F46" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="G46" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="G46" s="12" t="s">
+      <c r="H46" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A47" s="12">
         <v>10</v>
       </c>
@@ -6955,15 +7936,18 @@
         <v>232</v>
       </c>
       <c r="E47" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="F47" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="F47" s="12"/>
       <c r="G47" s="12"/>
-      <c r="H47" s="1"/>
+      <c r="H47" s="12"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A48" s="12">
         <v>11</v>
       </c>
@@ -6977,15 +7961,18 @@
         <v>232</v>
       </c>
       <c r="E48" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="F48" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="F48" s="12"/>
       <c r="G48" s="12"/>
-      <c r="H48" s="1"/>
+      <c r="H48" s="12"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A49" s="12">
         <v>12</v>
       </c>
@@ -6999,19 +7986,22 @@
         <v>232</v>
       </c>
       <c r="E49" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="F49" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="G49" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="G49" s="12" t="s">
+      <c r="H49" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A50" s="12">
         <v>1</v>
       </c>
@@ -7025,19 +8015,22 @@
         <v>233</v>
       </c>
       <c r="E50" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="F50" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="G50" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="G50" s="12" t="s">
+      <c r="H50" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A51" s="12">
         <v>2</v>
       </c>
@@ -7051,19 +8044,22 @@
         <v>233</v>
       </c>
       <c r="E51" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="F51" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="G51" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="G51" s="12" t="s">
+      <c r="H51" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A52" s="12">
         <v>3</v>
       </c>
@@ -7077,19 +8073,22 @@
         <v>233</v>
       </c>
       <c r="E52" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="F52" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="G52" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="G52" s="12" t="s">
+      <c r="H52" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A53" s="12">
         <v>4</v>
       </c>
@@ -7103,19 +8102,22 @@
         <v>233</v>
       </c>
       <c r="E53" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="F53" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="G53" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="G53" s="12" t="s">
+      <c r="H53" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A54" s="12">
         <v>5</v>
       </c>
@@ -7129,19 +8131,22 @@
         <v>233</v>
       </c>
       <c r="E54" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="F54" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="G54" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="G54" s="12" t="s">
+      <c r="H54" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A55" s="12">
         <v>6</v>
       </c>
@@ -7155,19 +8160,22 @@
         <v>233</v>
       </c>
       <c r="E55" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="F55" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="F55" s="12" t="s">
+      <c r="G55" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="G55" s="12" t="s">
+      <c r="H55" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A56" s="12">
         <v>7</v>
       </c>
@@ -7181,19 +8189,22 @@
         <v>233</v>
       </c>
       <c r="E56" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="F56" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="F56" s="12" t="s">
+      <c r="G56" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="G56" s="12" t="s">
+      <c r="H56" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A57" s="12">
         <v>8</v>
       </c>
@@ -7207,15 +8218,18 @@
         <v>233</v>
       </c>
       <c r="E57" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="F57" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F57" s="12"/>
       <c r="G57" s="12"/>
-      <c r="H57" s="1"/>
+      <c r="H57" s="12"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A58" s="12">
         <v>9</v>
       </c>
@@ -7229,15 +8243,18 @@
         <v>233</v>
       </c>
       <c r="E58" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="F58" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="F58" s="12"/>
       <c r="G58" s="12"/>
-      <c r="H58" s="1"/>
+      <c r="H58" s="12"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A59" s="12">
         <v>10</v>
       </c>
@@ -7251,19 +8268,22 @@
         <v>233</v>
       </c>
       <c r="E59" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="F59" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="F59" s="12" t="s">
+      <c r="G59" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="G59" s="12" t="s">
+      <c r="H59" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A60" s="12">
         <v>1</v>
       </c>
@@ -7277,19 +8297,22 @@
         <v>234</v>
       </c>
       <c r="E60" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="F60" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="F60" s="12" t="s">
+      <c r="G60" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="G60" s="12" t="s">
+      <c r="H60" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A61" s="12">
         <v>2</v>
       </c>
@@ -7303,19 +8326,22 @@
         <v>234</v>
       </c>
       <c r="E61" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="F61" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="F61" s="12" t="s">
+      <c r="G61" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="G61" s="12" t="s">
+      <c r="H61" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A62" s="12">
         <v>3</v>
       </c>
@@ -7329,19 +8355,22 @@
         <v>234</v>
       </c>
       <c r="E62" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="F62" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="F62" s="12" t="s">
+      <c r="G62" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="G62" s="12" t="s">
+      <c r="H62" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
-    </row>
-    <row r="63" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A63" s="12">
         <v>4</v>
       </c>
@@ -7355,19 +8384,22 @@
         <v>234</v>
       </c>
       <c r="E63" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="F63" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="F63" s="12" t="s">
+      <c r="G63" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="G63" s="12" t="s">
+      <c r="H63" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A64" s="12">
         <v>5</v>
       </c>
@@ -7381,19 +8413,22 @@
         <v>234</v>
       </c>
       <c r="E64" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="F64" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="F64" s="12" t="s">
+      <c r="G64" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="G64" s="12" t="s">
+      <c r="H64" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A65" s="12">
         <v>6</v>
       </c>
@@ -7407,19 +8442,22 @@
         <v>234</v>
       </c>
       <c r="E65" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="F65" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="F65" s="12" t="s">
+      <c r="G65" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="G65" s="12" t="s">
+      <c r="H65" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
-    </row>
-    <row r="66" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A66" s="12">
         <v>7</v>
       </c>
@@ -7433,15 +8471,18 @@
         <v>234</v>
       </c>
       <c r="E66" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="F66" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="F66" s="12"/>
       <c r="G66" s="12"/>
-      <c r="H66" s="1"/>
+      <c r="H66" s="12"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
-    </row>
-    <row r="67" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A67" s="12">
         <v>8</v>
       </c>
@@ -7455,15 +8496,18 @@
         <v>234</v>
       </c>
       <c r="E67" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="F67" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="F67" s="12"/>
       <c r="G67" s="12"/>
-      <c r="H67" s="1"/>
+      <c r="H67" s="12"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
-    </row>
-    <row r="68" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A68" s="12">
         <v>9</v>
       </c>
@@ -7477,19 +8521,22 @@
         <v>234</v>
       </c>
       <c r="E68" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="F68" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="F68" s="12" t="s">
+      <c r="G68" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="G68" s="12" t="s">
+      <c r="H68" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -7497,9 +8544,10 @@
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
-      <c r="H69" s="1"/>
+      <c r="H69" s="12"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7512,7 +8560,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7520,29 +8568,29 @@
     <col min="1" max="1" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.109375" customWidth="1"/>
     <col min="5" max="5" width="29.77734375" customWidth="1"/>
     <col min="6" max="6" width="31.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>366</v>
+        <v>516</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>370</v>
+        <v>423</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>367</v>
+        <v>424</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>368</v>
+        <v>119</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>369</v>
+        <v>425</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>

--- a/public/templates/Abnahme FRAGEN.xlsx
+++ b/public/templates/Abnahme FRAGEN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PWA\Aprod\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PWA\Aprod OLD2\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37716753-6609-4257-8457-80EA028FD388}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB4F666-EFC9-4E09-AF9B-51469DD35413}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20448" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="41280" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="554">
   <si>
     <t>ID</t>
   </si>
@@ -370,12 +370,6 @@
     <t>cellReference</t>
   </si>
   <si>
-    <t xml:space="preserve"> titleHu</t>
-  </si>
-  <si>
-    <t>titleDe</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -389,9 +383,6 @@
   </si>
   <si>
     <t>groupName</t>
-  </si>
-  <si>
-    <t>groupNameDe</t>
   </si>
   <si>
     <t>groupOrder</t>
@@ -1259,12 +1250,6 @@
     <t>Sok szöveg</t>
   </si>
   <si>
-    <t>placeholderDE</t>
-  </si>
-  <si>
-    <t>placeholderHU</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -1349,15 +1334,6 @@
     <t>Question was</t>
   </si>
   <si>
-    <t>titleEn</t>
-  </si>
-  <si>
-    <t>titleFr</t>
-  </si>
-  <si>
-    <t>titleIt</t>
-  </si>
-  <si>
     <t>Installation of a VF inverter</t>
   </si>
   <si>
@@ -1604,9 +1580,6 @@
     <t>5. Inspection in the Cabin</t>
   </si>
   <si>
-    <t>placeholderEN</t>
-  </si>
-  <si>
     <t>ZipCode</t>
   </si>
   <si>
@@ -1628,9 +1601,6 @@
     <t>Any</t>
   </si>
   <si>
-    <t>groupNameEn</t>
-  </si>
-  <si>
     <t>General Data</t>
   </si>
   <si>
@@ -1638,6 +1608,90 @@
   </si>
   <si>
     <t>Affected by Modernization</t>
+  </si>
+  <si>
+    <t>Dati generali</t>
+  </si>
+  <si>
+    <t>Sala macchine</t>
+  </si>
+  <si>
+    <t>Interessata da ammodernamento</t>
+  </si>
+  <si>
+    <t>Données générales</t>
+  </si>
+  <si>
+    <t>Salle des machines</t>
+  </si>
+  <si>
+    <t>Concernée par la modernisation</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>CAP</t>
+  </si>
+  <si>
+    <t>Via</t>
+  </si>
+  <si>
+    <t>Progetto</t>
+  </si>
+  <si>
+    <t>Molto testo</t>
+  </si>
+  <si>
+    <t>Seleziona altro</t>
+  </si>
+  <si>
+    <t>Qualsiasi</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>titlede</t>
+  </si>
+  <si>
+    <t>titleen</t>
+  </si>
+  <si>
+    <t>titlefr</t>
+  </si>
+  <si>
+    <t>titleit</t>
+  </si>
+  <si>
+    <t>placeholderhu</t>
+  </si>
+  <si>
+    <t>placeholderde</t>
+  </si>
+  <si>
+    <t>placeholderen</t>
+  </si>
+  <si>
+    <t>placeholderfr</t>
+  </si>
+  <si>
+    <t>placeholderit</t>
+  </si>
+  <si>
+    <t>groupNamehu</t>
+  </si>
+  <si>
+    <t>groupNamede</t>
+  </si>
+  <si>
+    <t>groupNameen</t>
+  </si>
+  <si>
+    <t>groupNamefr</t>
+  </si>
+  <si>
+    <t>groupNameit</t>
   </si>
 </sst>
 </file>
@@ -2090,10 +2144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C829CC3F-6FE0-4C51-9144-6919D0578DEB}">
-  <dimension ref="A1:AE49"/>
+  <dimension ref="A1:AI49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2115,34 +2169,36 @@
     <col min="15" max="15" width="40.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="32" customWidth="1"/>
-    <col min="21" max="21" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="40.88671875" customWidth="1"/>
-    <col min="23" max="23" width="43.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="96.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="42" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="32" customWidth="1"/>
+    <col min="23" max="23" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="40.88671875" customWidth="1"/>
+    <col min="25" max="25" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="43.44140625" customWidth="1"/>
+    <col min="27" max="27" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="96.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="42" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="33.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:35" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>113</v>
+        <v>362</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>114</v>
+        <v>540</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>439</v>
+        <v>541</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>440</v>
+        <v>542</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>441</v>
+        <v>543</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>23</v>
@@ -2151,7 +2207,7 @@
         <v>112</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>98</v>
@@ -2169,44 +2225,56 @@
         <v>106</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q1" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB1" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="R1" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="AA1" s="1"/>
-    </row>
-    <row r="2" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AC1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="AE1" s="1"/>
+    </row>
+    <row r="2" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2217,13 +2285,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -2250,34 +2318,46 @@
         <v>108</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="X2" s="1"/>
       <c r="Y2" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-    </row>
-    <row r="3" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AE2" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+    </row>
+    <row r="3" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2288,13 +2368,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>4</v>
@@ -2321,32 +2401,44 @@
         <v>108</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="X3" s="1"/>
       <c r="Y3" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
-    </row>
-    <row r="4" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+    </row>
+    <row r="4" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2357,13 +2449,13 @@
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>7</v>
@@ -2390,32 +2482,44 @@
         <v>10</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="U4" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W4" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="X4" s="1"/>
       <c r="Y4" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-    </row>
-    <row r="5" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+    </row>
+    <row r="5" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2426,13 +2530,13 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>4</v>
@@ -2462,29 +2566,41 @@
         <v>12</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="U5" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="X5" s="1"/>
       <c r="Y5" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
-    </row>
-    <row r="6" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+    </row>
+    <row r="6" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2495,13 +2611,13 @@
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>4</v>
@@ -2528,34 +2644,46 @@
         <v>16</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="T6" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="AA6" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1" t="s">
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-    </row>
-    <row r="7" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AE6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+    </row>
+    <row r="7" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2566,13 +2694,13 @@
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
@@ -2599,34 +2727,46 @@
         <v>18</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="U7" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W7" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="X7" s="1"/>
       <c r="Y7" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-    </row>
-    <row r="8" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AE7" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+    </row>
+    <row r="8" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2637,13 +2777,13 @@
         <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>4</v>
@@ -2670,32 +2810,44 @@
         <v>109</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="U8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W8" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="X8" s="1"/>
       <c r="Y8" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
-    </row>
-    <row r="9" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+    </row>
+    <row r="9" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2706,13 +2858,13 @@
         <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>4</v>
@@ -2742,31 +2894,43 @@
         <v>110</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="U9" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="W9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W9" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="X9" s="1"/>
       <c r="Y9" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-    </row>
-    <row r="10" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AE9" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+    </row>
+    <row r="10" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2777,13 +2941,13 @@
         <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>4</v>
@@ -2810,55 +2974,67 @@
         <v>31</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="U10" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="W10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W10" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="X10" s="1"/>
       <c r="Y10" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
-    </row>
-    <row r="11" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+    </row>
+    <row r="11" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2876,59 +3052,71 @@
         <v>25</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="T11" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="Z11" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="U11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
+      <c r="AA11" s="1" t="s">
+        <v>526</v>
+      </c>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
-    </row>
-    <row r="12" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+    </row>
+    <row r="12" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2945,56 +3133,68 @@
         <v>25</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="U12" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="W12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W12" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
+      <c r="Y12" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>526</v>
+      </c>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
-    </row>
-    <row r="13" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+    </row>
+    <row r="13" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3012,56 +3212,68 @@
         <v>25</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="U13" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="W13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W13" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
+      <c r="Y13" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>526</v>
+      </c>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
-    </row>
-    <row r="14" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+    </row>
+    <row r="14" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3079,35 +3291,47 @@
         <v>25</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="U14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="W14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="X14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W14" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="X14" s="1" t="s">
+      <c r="Y14" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
-    </row>
-    <row r="15" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+    </row>
+    <row r="15" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3118,13 +3342,13 @@
         <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>24</v>
@@ -3150,31 +3374,39 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="1" t="s">
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="X15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="W15" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="X15" s="1" t="s">
+      <c r="Y15" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y15" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
+      <c r="AC15" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-    </row>
-    <row r="16" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AE15" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+    </row>
+    <row r="16" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3185,13 +3417,13 @@
         <v>39</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>24</v>
@@ -3217,29 +3449,37 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="1" t="s">
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="W16" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="X16" s="1" t="s">
+      <c r="Y16" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="AB16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="AC16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
-    </row>
-    <row r="17" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+    </row>
+    <row r="17" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3250,13 +3490,13 @@
         <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>42</v>
@@ -3282,29 +3522,37 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="1" t="s">
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="X17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="W17" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="X17" s="1"/>
       <c r="Y17" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Z17" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
+      <c r="AD17" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="AE17" s="1"/>
-    </row>
-    <row r="18" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+    </row>
+    <row r="18" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3315,13 +3563,13 @@
         <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>42</v>
@@ -3347,27 +3595,35 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="1" t="s">
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="X18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="W18" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="X18" s="1"/>
       <c r="Y18" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
-    </row>
-    <row r="19" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+    </row>
+    <row r="19" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3378,13 +3634,13 @@
         <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>42</v>
@@ -3410,29 +3666,37 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-      <c r="U19" s="1" t="s">
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="X19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="W19" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="X19" s="1"/>
       <c r="Y19" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-    </row>
-    <row r="20" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AE19" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+    </row>
+    <row r="20" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3443,13 +3707,13 @@
         <v>57</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>42</v>
@@ -3475,27 +3739,35 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="U20" s="1" t="s">
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="X20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="W20" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="X20" s="1"/>
       <c r="Y20" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
-    </row>
-    <row r="21" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+    </row>
+    <row r="21" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3506,13 +3778,13 @@
         <v>58</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>42</v>
@@ -3538,27 +3810,35 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
-      <c r="U21" s="1" t="s">
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="X21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="W21" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="X21" s="1"/>
       <c r="Y21" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
-    </row>
-    <row r="22" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+    </row>
+    <row r="22" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3569,13 +3849,13 @@
         <v>59</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>42</v>
@@ -3601,29 +3881,37 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
-      <c r="U22" s="1" t="s">
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="X22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="W22" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="X22" s="1"/>
       <c r="Y22" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-    </row>
-    <row r="23" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AE22" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+    </row>
+    <row r="23" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3634,13 +3922,13 @@
         <v>60</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>42</v>
@@ -3666,29 +3954,37 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
-      <c r="U23" s="1" t="s">
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="X23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="W23" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="X23" s="1"/>
       <c r="Y23" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-    </row>
-    <row r="24" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AE23" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+    </row>
+    <row r="24" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3699,13 +3995,13 @@
         <v>61</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>42</v>
@@ -3731,29 +4027,37 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
-      <c r="U24" s="1" t="s">
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="X24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="W24" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="X24" s="1"/>
       <c r="Y24" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-    </row>
-    <row r="25" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AE24" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+    </row>
+    <row r="25" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3764,13 +4068,13 @@
         <v>62</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>42</v>
@@ -3796,27 +4100,35 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
-      <c r="U25" s="1" t="s">
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V25" s="1" t="s">
+      <c r="X25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="W25" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="X25" s="1"/>
       <c r="Y25" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
-    </row>
-    <row r="26" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+    </row>
+    <row r="26" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3827,13 +4139,13 @@
         <v>63</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>42</v>
@@ -3860,47 +4172,55 @@
         <v>111</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="T26" s="1"/>
-      <c r="U26" s="1" t="s">
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="X26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="W26" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="X26" s="1"/>
       <c r="Y26" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
-    </row>
-    <row r="27" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+    </row>
+    <row r="27" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>4</v>
@@ -3913,7 +4233,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="P27" s="1">
         <v>1</v>
@@ -3922,20 +4242,20 @@
         <v>25</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="T27" s="1"/>
-      <c r="U27" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
@@ -3943,8 +4263,12 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
-    </row>
-    <row r="28" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+    </row>
+    <row r="28" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
         <v>77</v>
       </c>
@@ -3955,13 +4279,13 @@
         <v>79</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>80</v>
@@ -3993,17 +4317,21 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
+      <c r="AC28" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
-    </row>
-    <row r="29" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+    </row>
+    <row r="29" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
         <v>81</v>
       </c>
@@ -4014,13 +4342,13 @@
         <v>83</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>80</v>
@@ -4052,17 +4380,21 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
-      <c r="Y29" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
+      <c r="AC29" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
-    </row>
-    <row r="30" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+    </row>
+    <row r="30" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
         <v>84</v>
       </c>
@@ -4073,13 +4405,13 @@
         <v>86</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>80</v>
@@ -4111,17 +4443,21 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
-      <c r="Y30" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
+      <c r="AC30" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
-    </row>
-    <row r="31" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+    </row>
+    <row r="31" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>87</v>
       </c>
@@ -4132,13 +4468,13 @@
         <v>89</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>90</v>
@@ -4176,17 +4512,21 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
-      <c r="Y31" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
+      <c r="AC31" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
-    </row>
-    <row r="32" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+    </row>
+    <row r="32" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>91</v>
       </c>
@@ -4197,13 +4537,13 @@
         <v>93</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>90</v>
@@ -4241,17 +4581,21 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
-      <c r="Y32" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
+      <c r="AC32" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
-    </row>
-    <row r="33" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+    </row>
+    <row r="33" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -4283,8 +4627,12 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
-    </row>
-    <row r="34" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+    </row>
+    <row r="34" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -4316,8 +4664,12 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
-    </row>
-    <row r="35" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+    </row>
+    <row r="35" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -4345,8 +4697,12 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
-    </row>
-    <row r="36" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+    </row>
+    <row r="36" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4374,8 +4730,12 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
-    </row>
-    <row r="37" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+    </row>
+    <row r="37" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -4403,8 +4763,12 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
-    </row>
-    <row r="38" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+    </row>
+    <row r="38" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -4432,8 +4796,12 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
-    </row>
-    <row r="39" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+    </row>
+    <row r="39" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -4461,8 +4829,12 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
-    </row>
-    <row r="40" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+    </row>
+    <row r="40" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -4490,8 +4862,12 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
-    </row>
-    <row r="41" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+    </row>
+    <row r="41" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -4519,8 +4895,12 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
-    </row>
-    <row r="42" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+    </row>
+    <row r="42" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -4548,8 +4928,12 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
-    </row>
-    <row r="43" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+    </row>
+    <row r="43" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -4577,8 +4961,12 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
-    </row>
-    <row r="44" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+    </row>
+    <row r="44" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -4606,8 +4994,12 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
-    </row>
-    <row r="45" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+    </row>
+    <row r="45" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -4635,8 +5027,12 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
-    </row>
-    <row r="46" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+    </row>
+    <row r="46" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -4664,8 +5060,12 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
-    </row>
-    <row r="47" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+    </row>
+    <row r="47" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -4693,8 +5093,12 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
-    </row>
-    <row r="48" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+    </row>
+    <row r="48" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -4722,8 +5126,12 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
-    </row>
-    <row r="49" spans="1:27" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+    </row>
+    <row r="49" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -4751,6 +5159,10 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4784,10 +5196,10 @@
         <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -4811,20 +5223,20 @@
     </row>
     <row r="2" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -4842,13 +5254,13 @@
     </row>
     <row r="3" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
@@ -4871,13 +5283,13 @@
     </row>
     <row r="4" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
@@ -4900,13 +5312,13 @@
     </row>
     <row r="5" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
@@ -4929,22 +5341,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -4962,22 +5374,22 @@
     </row>
     <row r="7" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -4995,22 +5407,22 @@
     </row>
     <row r="8" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -5028,22 +5440,22 @@
     </row>
     <row r="9" spans="1:19" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -5797,10 +6209,10 @@
   <sheetData>
     <row r="1" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -5821,10 +6233,10 @@
     </row>
     <row r="2" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5845,10 +6257,10 @@
     </row>
     <row r="3" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5869,10 +6281,10 @@
     </row>
     <row r="4" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -6358,28 +6770,28 @@
   <sheetData>
     <row r="1" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>186</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -6397,25 +6809,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -6433,25 +6845,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="G3" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>240</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>243</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -6469,25 +6881,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>241</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>244</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -6505,25 +6917,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -6541,25 +6953,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -6577,25 +6989,25 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -6613,25 +7025,25 @@
         <v>2</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -6649,25 +7061,25 @@
         <v>3</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -6685,25 +7097,25 @@
         <v>4</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -6721,25 +7133,25 @@
         <v>5</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -6757,25 +7169,25 @@
         <v>6</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -6793,25 +7205,25 @@
         <v>7</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -6829,25 +7241,25 @@
         <v>8</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -6865,25 +7277,25 @@
         <v>9</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -6901,25 +7313,25 @@
         <v>10</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -6937,25 +7349,25 @@
         <v>11</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -6973,25 +7385,25 @@
         <v>12</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -7009,19 +7421,19 @@
         <v>13</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
@@ -7041,25 +7453,25 @@
         <v>14</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -7077,25 +7489,25 @@
         <v>1</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -7113,25 +7525,25 @@
         <v>2</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -7149,25 +7561,25 @@
         <v>3</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -7185,25 +7597,25 @@
         <v>4</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -7221,25 +7633,25 @@
         <v>5</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -7257,25 +7669,25 @@
         <v>6</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -7293,25 +7705,25 @@
         <v>7</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -7329,25 +7741,25 @@
         <v>8</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -7365,25 +7777,25 @@
         <v>9</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -7401,25 +7813,25 @@
         <v>10</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -7437,25 +7849,25 @@
         <v>11</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -7473,25 +7885,25 @@
         <v>12</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -7509,25 +7921,25 @@
         <v>13</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -7545,25 +7957,25 @@
         <v>14</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -7581,19 +7993,19 @@
         <v>15</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
@@ -7613,19 +8025,19 @@
         <v>16</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G36" s="12"/>
       <c r="I36" s="1"/>
@@ -7637,25 +8049,25 @@
         <v>17</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -7666,25 +8078,25 @@
         <v>1</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -7695,25 +8107,25 @@
         <v>2</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>71</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -7724,25 +8136,25 @@
         <v>3</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -7753,25 +8165,25 @@
         <v>4</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -7782,25 +8194,25 @@
         <v>5</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -7811,25 +8223,25 @@
         <v>6</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -7840,25 +8252,25 @@
         <v>7</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -7869,25 +8281,25 @@
         <v>8</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -7898,25 +8310,25 @@
         <v>9</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -7927,19 +8339,19 @@
         <v>10</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -7952,19 +8364,19 @@
         <v>11</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -7977,25 +8389,25 @@
         <v>12</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -8006,25 +8418,25 @@
         <v>1</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -8035,25 +8447,25 @@
         <v>2</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -8064,25 +8476,25 @@
         <v>3</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -8093,25 +8505,25 @@
         <v>4</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -8122,25 +8534,25 @@
         <v>5</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -8151,25 +8563,25 @@
         <v>6</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -8180,25 +8592,25 @@
         <v>7</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -8209,19 +8621,19 @@
         <v>8</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
@@ -8234,19 +8646,19 @@
         <v>9</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -8259,25 +8671,25 @@
         <v>10</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -8288,25 +8700,25 @@
         <v>1</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -8317,25 +8729,25 @@
         <v>2</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -8346,25 +8758,25 @@
         <v>3</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -8375,25 +8787,25 @@
         <v>4</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -8404,25 +8816,25 @@
         <v>5</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -8433,25 +8845,25 @@
         <v>6</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -8462,19 +8874,19 @@
         <v>7</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
@@ -8487,19 +8899,19 @@
         <v>8</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
@@ -8512,25 +8924,25 @@
         <v>9</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -8578,19 +8990,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -8607,22 +9019,22 @@
     </row>
     <row r="2" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -8639,22 +9051,22 @@
     </row>
     <row r="3" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -8671,20 +9083,20 @@
     </row>
     <row r="4" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -8701,20 +9113,20 @@
     </row>
     <row r="5" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -8731,20 +9143,20 @@
     </row>
     <row r="6" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -8761,20 +9173,20 @@
     </row>
     <row r="7" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -8791,20 +9203,20 @@
     </row>
     <row r="8" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -8821,20 +9233,20 @@
     </row>
     <row r="9" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -8851,20 +9263,20 @@
     </row>
     <row r="10" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -8881,20 +9293,20 @@
     </row>
     <row r="11" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -8911,20 +9323,20 @@
     </row>
     <row r="12" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -8941,20 +9353,20 @@
     </row>
     <row r="13" spans="1:18" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -8971,20 +9383,20 @@
     </row>
     <row r="14" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -9002,13 +9414,13 @@
     <row r="15" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
